--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3413061.198726648</v>
+        <v>3410675.353074752</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9275893.047360519</v>
+        <v>9275893.047360526</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673445</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,67 +1218,67 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,70 +1291,70 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="D10" t="n">
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.4185291992665</v>
       </c>
       <c r="F11" t="n">
         <v>359.3642048687162</v>
       </c>
       <c r="G11" t="n">
-        <v>363.4363382927601</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>152.3561880375662</v>
+        <v>247.3668405471868</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T11" t="n">
         <v>156.5219295167264</v>
@@ -1433,7 +1433,7 @@
         <v>301.7291278444177</v>
       </c>
       <c r="X11" t="n">
-        <v>322.2192598054738</v>
+        <v>193.9476860625856</v>
       </c>
       <c r="Y11" t="n">
         <v>338.7260977830583</v>
@@ -1543,7 +1543,7 @@
         <v>118.5258335209569</v>
       </c>
       <c r="H13" t="n">
-        <v>97.34867476819402</v>
+        <v>97.34867476819471</v>
       </c>
       <c r="I13" t="n">
         <v>49.19742657619179</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C14" t="n">
         <v>317.7610508980123</v>
       </c>
       <c r="D14" t="n">
-        <v>307.1712007476877</v>
+        <v>174.8274935807551</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F14" t="n">
-        <v>359.3642048687162</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.4363382927601</v>
       </c>
       <c r="H14" t="n">
-        <v>90.07745771080586</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>280.2404175971396</v>
       </c>
       <c r="W14" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X14" t="n">
         <v>322.2192598054738</v>
@@ -1701,10 +1701,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H15" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I15" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C16" t="n">
         <v>119.7349802256326</v>
@@ -1771,19 +1771,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E16" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F16" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G16" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H16" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I16" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281386</v>
       </c>
       <c r="S16" t="n">
         <v>142.4639788279847</v>
@@ -1822,16 +1822,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V16" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W16" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X16" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.27873032675967</v>
+        <v>62.27873032675964</v>
       </c>
       <c r="T17" t="n">
         <v>156.5219295167264</v>
@@ -1907,7 +1907,7 @@
         <v>301.7291278444177</v>
       </c>
       <c r="X17" t="n">
-        <v>322.2192598054748</v>
+        <v>322.2192598054738</v>
       </c>
       <c r="Y17" t="n">
         <v>338.7260977830583</v>
@@ -1938,10 +1938,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H18" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I18" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281383</v>
       </c>
       <c r="S19" t="n">
         <v>142.4639788279847</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.27873032675967</v>
+        <v>62.27873032675964</v>
       </c>
       <c r="T20" t="n">
         <v>156.5219295167264</v>
@@ -2175,10 +2175,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H21" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I21" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281383</v>
       </c>
       <c r="S22" t="n">
         <v>142.4639788279847</v>
@@ -2412,10 +2412,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H24" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I24" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E25" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357392</v>
       </c>
       <c r="F25" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993599</v>
       </c>
       <c r="G25" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H25" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819473</v>
       </c>
       <c r="I25" t="n">
-        <v>49.19742657619179</v>
+        <v>49.1974265761918</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95385637281385</v>
+        <v>41.95385637281383</v>
       </c>
       <c r="S25" t="n">
         <v>142.4639788279847</v>
@@ -2573,7 +2573,7 @@
         <v>294.8786814201821</v>
       </c>
       <c r="I26" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H27" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I27" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>24.19001340892443</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.70926744918705</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>89.46569724580911</v>
+        <v>89.4656972458091</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.97581970098</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5996500344806</v>
       </c>
       <c r="U28" t="n">
         <v>286.212485449336</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>150.8176098534127</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9481791657554</v>
+        <v>410.9481791657553</v>
       </c>
       <c r="H29" t="n">
         <v>294.8786814201821</v>
       </c>
       <c r="I29" t="n">
-        <v>42.59677880594424</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.790571199755</v>
+        <v>109.7905711997549</v>
       </c>
       <c r="T29" t="n">
-        <v>204.0337703897217</v>
+        <v>204.0337703897216</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9972882398862</v>
+        <v>250.9972882398861</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,10 +2886,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H30" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I30" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>153.5717909547213</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.70926744918705</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.46569724580917</v>
+        <v>89.4656972458091</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.97581970098</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5996500344806</v>
       </c>
       <c r="U31" t="n">
         <v>286.212485449336</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>159.6519540282691</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.9548711091851</v>
+        <v>380.954871109185</v>
       </c>
       <c r="C32" t="n">
-        <v>363.4939212167121</v>
+        <v>363.493921216712</v>
       </c>
       <c r="D32" t="n">
-        <v>352.9040710663875</v>
+        <v>352.9040710663874</v>
       </c>
       <c r="E32" t="n">
-        <v>380.1513995179663</v>
+        <v>380.1513995179662</v>
       </c>
       <c r="F32" t="n">
-        <v>405.097075187416</v>
+        <v>405.0970751874158</v>
       </c>
       <c r="G32" t="n">
-        <v>409.1692086114599</v>
+        <v>409.1692086114597</v>
       </c>
       <c r="H32" t="n">
-        <v>293.0997108658866</v>
+        <v>293.0997108658865</v>
       </c>
       <c r="I32" t="n">
-        <v>40.81780825164872</v>
+        <v>40.81780825164857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>108.0116006454595</v>
+        <v>108.0116006454593</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2547998354262</v>
+        <v>202.254799835426</v>
       </c>
       <c r="U32" t="n">
-        <v>249.2183176855907</v>
+        <v>249.2183176855905</v>
       </c>
       <c r="V32" t="n">
-        <v>325.9732879158394</v>
+        <v>325.9732879158393</v>
       </c>
       <c r="W32" t="n">
-        <v>347.4619981631175</v>
+        <v>347.4619981631174</v>
       </c>
       <c r="X32" t="n">
-        <v>367.9521301241736</v>
+        <v>367.9521301241734</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.4589681017581</v>
+        <v>384.458968101758</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H33" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I33" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.0530096276418</v>
+        <v>178.0530096276417</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8365024639169</v>
+        <v>146.8365024639168</v>
       </c>
       <c r="E34" t="n">
-        <v>144.6549920922737</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>143.6420774686358</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>87.68672669151366</v>
+        <v>87.68672669151351</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.1968491466844</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.820679480185</v>
       </c>
       <c r="U34" t="n">
-        <v>284.4335148950405</v>
+        <v>284.4335148950404</v>
       </c>
       <c r="V34" t="n">
-        <v>250.3586727695325</v>
+        <v>232.8916067999602</v>
       </c>
       <c r="W34" t="n">
-        <v>284.7440277822955</v>
+        <v>284.7440277822954</v>
       </c>
       <c r="X34" t="n">
-        <v>223.9306848347417</v>
+        <v>223.9306848347416</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.2533930963857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.2220007904854</v>
+        <v>335.2220007904853</v>
       </c>
       <c r="C35" t="n">
         <v>317.7610508980123</v>
@@ -3272,7 +3272,7 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E35" t="n">
-        <v>334.4185291992666</v>
+        <v>334.4185291992665</v>
       </c>
       <c r="F35" t="n">
         <v>359.3642048687162</v>
@@ -3281,7 +3281,7 @@
         <v>363.4363382927601</v>
       </c>
       <c r="H35" t="n">
-        <v>247.3668405471869</v>
+        <v>247.3668405471868</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2787303267597</v>
+        <v>62.27873032675963</v>
       </c>
       <c r="T35" t="n">
-        <v>156.5219295167264</v>
+        <v>156.5219295167263</v>
       </c>
       <c r="U35" t="n">
         <v>203.4854473668909</v>
@@ -3326,7 +3326,7 @@
         <v>280.2404175971396</v>
       </c>
       <c r="W35" t="n">
-        <v>301.7291278444178</v>
+        <v>301.7291278444177</v>
       </c>
       <c r="X35" t="n">
         <v>322.2192598054738</v>
@@ -3360,10 +3360,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H36" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I36" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.3201393089421</v>
+        <v>132.320139308942</v>
       </c>
       <c r="C37" t="n">
         <v>119.7349802256326</v>
@@ -3430,19 +3430,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E37" t="n">
-        <v>98.92212177357393</v>
+        <v>98.92212177357389</v>
       </c>
       <c r="F37" t="n">
-        <v>97.90920714993601</v>
+        <v>97.90920714993597</v>
       </c>
       <c r="G37" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H37" t="n">
-        <v>97.34867476819474</v>
+        <v>97.3486747681947</v>
       </c>
       <c r="I37" t="n">
-        <v>49.19742657619182</v>
+        <v>49.19742657619177</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95385637281387</v>
+        <v>41.95385637281383</v>
       </c>
       <c r="S37" t="n">
         <v>142.4639788279847</v>
@@ -3481,16 +3481,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V37" t="n">
-        <v>204.6258024508328</v>
+        <v>204.6258024508327</v>
       </c>
       <c r="W37" t="n">
-        <v>239.0111574635958</v>
+        <v>239.0111574635957</v>
       </c>
       <c r="X37" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0728124790996</v>
+        <v>171.0728124790995</v>
       </c>
     </row>
     <row r="38">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.9640198292853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C41" t="n">
         <v>317.7610508980123</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.4185291992666</v>
+        <v>149.8818179113055</v>
       </c>
       <c r="F41" t="n">
         <v>359.3642048687162</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T41" t="n">
         <v>156.5219295167264</v>
@@ -3834,10 +3834,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H42" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I42" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>118.5258335209569</v>
       </c>
       <c r="H43" t="n">
-        <v>97.34867476819385</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I43" t="n">
-        <v>49.19742657619182</v>
+        <v>49.19742657619081</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95385637281387</v>
+        <v>41.95385637281386</v>
       </c>
       <c r="S43" t="n">
         <v>142.4639788279847</v>
@@ -3977,22 +3977,22 @@
         <v>335.2220007904853</v>
       </c>
       <c r="C44" t="n">
-        <v>317.7610508980122</v>
+        <v>317.7610508980123</v>
       </c>
       <c r="D44" t="n">
-        <v>307.1712007476876</v>
+        <v>307.1712007476877</v>
       </c>
       <c r="E44" t="n">
-        <v>334.4185291992665</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.3642048687161</v>
+        <v>359.3642048687162</v>
       </c>
       <c r="G44" t="n">
-        <v>363.43633829276</v>
+        <v>363.4363382927601</v>
       </c>
       <c r="H44" t="n">
-        <v>234.4001178337401</v>
+        <v>90.07745771080448</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>62.27873032675964</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.5219295167264</v>
       </c>
       <c r="U44" t="n">
-        <v>203.4854473668908</v>
+        <v>203.4854473668909</v>
       </c>
       <c r="V44" t="n">
         <v>280.2404175971396</v>
@@ -4040,7 +4040,7 @@
         <v>301.7291278444177</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.2192598054738</v>
       </c>
       <c r="Y44" t="n">
         <v>338.7260977830583</v>
@@ -4071,10 +4071,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H45" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I45" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.320139308942</v>
       </c>
       <c r="C46" t="n">
-        <v>119.7349802256325</v>
+        <v>119.7349802256326</v>
       </c>
       <c r="D46" t="n">
-        <v>101.103632145217</v>
+        <v>101.1036321452171</v>
       </c>
       <c r="E46" t="n">
-        <v>98.92212177357386</v>
+        <v>98.92212177357391</v>
       </c>
       <c r="F46" t="n">
-        <v>97.90920714993594</v>
+        <v>97.90920714993598</v>
       </c>
       <c r="G46" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H46" t="n">
-        <v>97.34867476819467</v>
+        <v>97.34867476819471</v>
       </c>
       <c r="I46" t="n">
-        <v>49.19742657619175</v>
+        <v>49.19742657619179</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95385637281379</v>
+        <v>41.95385637281383</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4639788279846</v>
+        <v>142.4639788279847</v>
       </c>
       <c r="T46" t="n">
-        <v>172.0878091614852</v>
+        <v>172.0878091614853</v>
       </c>
       <c r="U46" t="n">
         <v>238.7006445763407</v>
@@ -4198,7 +4198,7 @@
         <v>239.0111574635957</v>
       </c>
       <c r="X46" t="n">
-        <v>178.1978145160418</v>
+        <v>178.1978145160419</v>
       </c>
       <c r="Y46" t="n">
         <v>171.0728124790995</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
         <v>0.5500836593369149</v>
@@ -4829,25 +4829,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
         <v>0.5500836593369149</v>
@@ -4884,19 +4884,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M9" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L9" t="n">
-        <v>7.357368943631237</v>
-      </c>
-      <c r="M9" t="n">
-        <v>13.8896123982571</v>
-      </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
         <v>0.5500836593369149</v>
@@ -4984,28 +4984,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1586.118190536824</v>
+        <v>1652.777628330892</v>
       </c>
       <c r="C11" t="n">
-        <v>1265.147432053983</v>
+        <v>1331.806869848051</v>
       </c>
       <c r="D11" t="n">
-        <v>954.8734919048034</v>
+        <v>1021.532929698871</v>
       </c>
       <c r="E11" t="n">
-        <v>954.8734919048034</v>
+        <v>683.7364355581979</v>
       </c>
       <c r="F11" t="n">
-        <v>591.8793455727669</v>
+        <v>320.7422892261614</v>
       </c>
       <c r="G11" t="n">
-        <v>224.7719331558375</v>
+        <v>320.7422892261614</v>
       </c>
       <c r="H11" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="I11" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="J11" t="n">
         <v>424.9388170014965</v>
@@ -5045,46 +5045,46 @@
         <v>755.4268545855273</v>
       </c>
       <c r="L11" t="n">
-        <v>1280.401982757664</v>
+        <v>1202.328250817783</v>
       </c>
       <c r="M11" t="n">
-        <v>1809.335332190531</v>
+        <v>1731.26160025065</v>
       </c>
       <c r="N11" t="n">
-        <v>2351.441184578846</v>
+        <v>2273.367452638965</v>
       </c>
       <c r="O11" t="n">
-        <v>2850.001107429538</v>
+        <v>2771.927375489657</v>
       </c>
       <c r="P11" t="n">
-        <v>3241.009466132175</v>
+        <v>3162.935734192293</v>
       </c>
       <c r="Q11" t="n">
-        <v>3486.467712978533</v>
+        <v>3486.467712978532</v>
       </c>
       <c r="R11" t="n">
-        <v>3543.839686197624</v>
+        <v>3543.839686197623</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.839686197624</v>
+        <v>3480.931877786755</v>
       </c>
       <c r="T11" t="n">
-        <v>3385.736727089819</v>
+        <v>3322.82891867895</v>
       </c>
       <c r="U11" t="n">
-        <v>3180.195871163667</v>
+        <v>3117.288062752797</v>
       </c>
       <c r="V11" t="n">
-        <v>2897.124742277667</v>
+        <v>2834.216933866798</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.347845465124</v>
+        <v>2529.440037054254</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.873845661615</v>
+        <v>2333.533283455683</v>
       </c>
       <c r="Y11" t="n">
-        <v>1924.726272143374</v>
+        <v>1991.385709937442</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>307.1656645787514</v>
       </c>
       <c r="G12" t="n">
-        <v>170.7882675660274</v>
+        <v>170.7882675660273</v>
       </c>
       <c r="H12" t="n">
-        <v>80.14829577651187</v>
+        <v>80.14829577651186</v>
       </c>
       <c r="I12" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="J12" t="n">
-        <v>163.2302045503651</v>
+        <v>163.230204550365</v>
       </c>
       <c r="K12" t="n">
         <v>399.2317182124806</v>
       </c>
       <c r="L12" t="n">
-        <v>762.8874188820721</v>
+        <v>762.887418882072</v>
       </c>
       <c r="M12" t="n">
         <v>1206.613337204471</v>
       </c>
       <c r="N12" t="n">
-        <v>1676.492005152934</v>
+        <v>1676.492005152933</v>
       </c>
       <c r="O12" t="n">
         <v>2084.119392878072</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.161680700533</v>
+        <v>2391.943242349525</v>
       </c>
       <c r="Q12" t="n">
         <v>2560.014575677664</v>
@@ -5176,31 +5176,31 @@
         <v>760.5150524711269</v>
       </c>
       <c r="C13" t="n">
-        <v>639.5706280007909</v>
+        <v>639.570628000791</v>
       </c>
       <c r="D13" t="n">
         <v>537.4457470460262</v>
       </c>
       <c r="E13" t="n">
-        <v>437.5244119212043</v>
+        <v>437.5244119212041</v>
       </c>
       <c r="F13" t="n">
-        <v>338.6262228808651</v>
+        <v>338.6262228808647</v>
       </c>
       <c r="G13" t="n">
-        <v>218.9031587182824</v>
+        <v>218.903158718282</v>
       </c>
       <c r="H13" t="n">
-        <v>120.5711640029341</v>
+        <v>120.5711640029338</v>
       </c>
       <c r="I13" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="J13" t="n">
         <v>162.2056022534221</v>
       </c>
       <c r="K13" t="n">
-        <v>411.8646648276124</v>
+        <v>411.8646648276125</v>
       </c>
       <c r="L13" t="n">
         <v>773.7146568054592</v>
@@ -5209,10 +5209,10 @@
         <v>1163.066954988832</v>
       </c>
       <c r="N13" t="n">
-        <v>1549.714370316391</v>
+        <v>1549.71437031639</v>
       </c>
       <c r="O13" t="n">
-        <v>1894.420239708893</v>
+        <v>1894.420239708892</v>
       </c>
       <c r="P13" t="n">
         <v>2172.643659075565</v>
@@ -5252,73 +5252,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1523.210382125956</v>
+        <v>1523.210382125955</v>
       </c>
       <c r="C14" t="n">
-        <v>1202.239623643115</v>
+        <v>1202.239623643114</v>
       </c>
       <c r="D14" t="n">
-        <v>891.9656834939344</v>
+        <v>1025.646195783766</v>
       </c>
       <c r="E14" t="n">
-        <v>891.9656834939344</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="F14" t="n">
-        <v>528.9715371618979</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="G14" t="n">
-        <v>161.8641247449685</v>
+        <v>320.7422892261615</v>
       </c>
       <c r="H14" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="I14" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="J14" t="n">
-        <v>424.9388170014965</v>
+        <v>257.5331679811436</v>
       </c>
       <c r="K14" t="n">
-        <v>755.4268545855273</v>
+        <v>588.0212055651746</v>
       </c>
       <c r="L14" t="n">
-        <v>1202.328250817783</v>
+        <v>1034.92260179743</v>
       </c>
       <c r="M14" t="n">
-        <v>1731.26160025065</v>
+        <v>1563.855951230297</v>
       </c>
       <c r="N14" t="n">
-        <v>2273.367452638965</v>
+        <v>2351.441184578845</v>
       </c>
       <c r="O14" t="n">
-        <v>2771.927375489657</v>
+        <v>2850.001107429537</v>
       </c>
       <c r="P14" t="n">
-        <v>3162.935734192293</v>
+        <v>3241.009466132173</v>
       </c>
       <c r="Q14" t="n">
-        <v>3486.467712978533</v>
+        <v>3486.467712978532</v>
       </c>
       <c r="R14" t="n">
-        <v>3543.839686197624</v>
+        <v>3543.839686197623</v>
       </c>
       <c r="S14" t="n">
-        <v>3480.931877786756</v>
+        <v>3480.931877786755</v>
       </c>
       <c r="T14" t="n">
-        <v>3322.828918678951</v>
+        <v>3322.82891867895</v>
       </c>
       <c r="U14" t="n">
-        <v>3117.288062752799</v>
+        <v>3117.288062752798</v>
       </c>
       <c r="V14" t="n">
-        <v>2834.2169338668</v>
+        <v>2834.216933866799</v>
       </c>
       <c r="W14" t="n">
-        <v>2529.440037054256</v>
+        <v>2529.440037054255</v>
       </c>
       <c r="X14" t="n">
-        <v>2203.966037250747</v>
+        <v>2203.966037250746</v>
       </c>
       <c r="Y14" t="n">
         <v>1861.818463732506</v>
@@ -5346,19 +5346,19 @@
         <v>307.1656645787514</v>
       </c>
       <c r="G15" t="n">
-        <v>170.7882675660274</v>
+        <v>170.7882675660273</v>
       </c>
       <c r="H15" t="n">
-        <v>80.14829577651187</v>
+        <v>80.14829577651184</v>
       </c>
       <c r="I15" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="J15" t="n">
         <v>163.2302045503651</v>
       </c>
       <c r="K15" t="n">
-        <v>399.2317182124806</v>
+        <v>399.2317182124808</v>
       </c>
       <c r="L15" t="n">
         <v>775.105857233079</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.5150524711272</v>
+        <v>760.515052471127</v>
       </c>
       <c r="C16" t="n">
-        <v>639.5706280007913</v>
+        <v>639.570628000791</v>
       </c>
       <c r="D16" t="n">
-        <v>537.4457470460266</v>
+        <v>537.4457470460262</v>
       </c>
       <c r="E16" t="n">
-        <v>437.5244119212044</v>
+        <v>437.5244119212041</v>
       </c>
       <c r="F16" t="n">
-        <v>338.626222880865</v>
+        <v>338.6262228808647</v>
       </c>
       <c r="G16" t="n">
-        <v>218.9031587182823</v>
+        <v>218.9031587182819</v>
       </c>
       <c r="H16" t="n">
         <v>120.5711640029341</v>
       </c>
       <c r="I16" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395246</v>
       </c>
       <c r="J16" t="n">
         <v>162.2056022534222</v>
       </c>
       <c r="K16" t="n">
-        <v>411.8646648276122</v>
+        <v>411.8646648276126</v>
       </c>
       <c r="L16" t="n">
-        <v>773.7146568054588</v>
+        <v>773.7146568054593</v>
       </c>
       <c r="M16" t="n">
         <v>1163.066954988832</v>
       </c>
       <c r="N16" t="n">
-        <v>1549.71437031639</v>
+        <v>1549.714370316391</v>
       </c>
       <c r="O16" t="n">
-        <v>1894.420239708892</v>
+        <v>1894.420239708893</v>
       </c>
       <c r="P16" t="n">
-        <v>2172.643659075564</v>
+        <v>2172.643659075565</v>
       </c>
       <c r="Q16" t="n">
         <v>2296.306986973285</v>
       </c>
       <c r="R16" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S16" t="n">
         <v>2110.026345356317</v>
@@ -5479,7 +5479,7 @@
         <v>1066.972579529755</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.1717588437959</v>
+        <v>894.1717588437957</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2030.021258270716</v>
+        <v>2030.021258270717</v>
       </c>
       <c r="C17" t="n">
-        <v>1709.050499787875</v>
+        <v>1709.050499787876</v>
       </c>
       <c r="D17" t="n">
-        <v>1398.776559638696</v>
+        <v>1398.776559638697</v>
       </c>
       <c r="E17" t="n">
-        <v>1060.980065498022</v>
+        <v>1060.980065498024</v>
       </c>
       <c r="F17" t="n">
-        <v>697.9859191659859</v>
+        <v>697.9859191659871</v>
       </c>
       <c r="G17" t="n">
         <v>330.8785067490567</v>
       </c>
       <c r="H17" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684771</v>
       </c>
       <c r="I17" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684771</v>
       </c>
       <c r="J17" t="n">
-        <v>415.9916075688124</v>
+        <v>435.0750345243919</v>
       </c>
       <c r="K17" t="n">
-        <v>746.4796451528432</v>
+        <v>1086.467030553876</v>
       </c>
       <c r="L17" t="n">
-        <v>1193.381041385099</v>
+        <v>1533.368426786131</v>
       </c>
       <c r="M17" t="n">
-        <v>1722.314390817965</v>
+        <v>2316.146208335292</v>
       </c>
       <c r="N17" t="n">
-        <v>2264.420243206281</v>
+        <v>2858.252060723607</v>
       </c>
       <c r="O17" t="n">
-        <v>2762.980166056973</v>
+        <v>3356.811983574299</v>
       </c>
       <c r="P17" t="n">
-        <v>3472.569245849377</v>
+        <v>3747.820342276936</v>
       </c>
       <c r="Q17" t="n">
-        <v>3928.219333449041</v>
+        <v>3993.278589123294</v>
       </c>
       <c r="R17" t="n">
         <v>4050.650562342385</v>
       </c>
       <c r="S17" t="n">
-        <v>3987.742753931516</v>
+        <v>3987.742753931517</v>
       </c>
       <c r="T17" t="n">
-        <v>3829.639794823712</v>
+        <v>3829.639794823713</v>
       </c>
       <c r="U17" t="n">
-        <v>3624.098938897559</v>
+        <v>3624.09893889756</v>
       </c>
       <c r="V17" t="n">
-        <v>3341.02781001156</v>
+        <v>3341.027810011561</v>
       </c>
       <c r="W17" t="n">
-        <v>3036.250913199016</v>
+        <v>3036.250913199017</v>
       </c>
       <c r="X17" t="n">
         <v>2710.776913395508</v>
       </c>
       <c r="Y17" t="n">
-        <v>2368.629339877267</v>
+        <v>2368.629339877268</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>90.2845132994071</v>
       </c>
       <c r="I18" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684771</v>
       </c>
       <c r="J18" t="n">
-        <v>173.3664220732603</v>
+        <v>185.5848604242673</v>
       </c>
       <c r="K18" t="n">
-        <v>409.3679357353759</v>
+        <v>421.586374086383</v>
       </c>
       <c r="L18" t="n">
-        <v>773.0236364049673</v>
+        <v>785.2420747559745</v>
       </c>
       <c r="M18" t="n">
         <v>1228.967993078374</v>
@@ -5659,7 +5659,7 @@
         <v>447.6606294440996</v>
       </c>
       <c r="F19" t="n">
-        <v>348.7624404037602</v>
+        <v>348.7624404037603</v>
       </c>
       <c r="G19" t="n">
         <v>229.0393762411775</v>
@@ -5668,16 +5668,16 @@
         <v>130.7073815258293</v>
       </c>
       <c r="I19" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684771</v>
       </c>
       <c r="J19" t="n">
         <v>172.3418197763174</v>
       </c>
       <c r="K19" t="n">
-        <v>422.0008823505077</v>
+        <v>422.0008823505078</v>
       </c>
       <c r="L19" t="n">
-        <v>783.8508743283544</v>
+        <v>783.8508743283546</v>
       </c>
       <c r="M19" t="n">
         <v>1173.203172511728</v>
@@ -5704,10 +5704,10 @@
         <v>1946.336493019126</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.224730820803</v>
+        <v>1705.224730820802</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.532001072487</v>
+        <v>1498.532001072486</v>
       </c>
       <c r="W19" t="n">
         <v>1257.106589493097</v>
@@ -5741,46 +5741,46 @@
         <v>697.9859191659862</v>
       </c>
       <c r="G20" t="n">
-        <v>330.8785067490567</v>
+        <v>330.8785067490566</v>
       </c>
       <c r="H20" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684768</v>
       </c>
       <c r="I20" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684768</v>
       </c>
       <c r="J20" t="n">
-        <v>267.6693855040387</v>
+        <v>267.6693855040388</v>
       </c>
       <c r="K20" t="n">
-        <v>598.1574230880694</v>
+        <v>644.7385621302822</v>
       </c>
       <c r="L20" t="n">
-        <v>1458.543421725271</v>
+        <v>1091.639958362538</v>
       </c>
       <c r="M20" t="n">
-        <v>2105.954367581986</v>
+        <v>1620.573307795405</v>
       </c>
       <c r="N20" t="n">
-        <v>2648.060219970302</v>
+        <v>2162.67916018372</v>
       </c>
       <c r="O20" t="n">
-        <v>3146.620142820994</v>
+        <v>3038.23126248453</v>
       </c>
       <c r="P20" t="n">
-        <v>3537.62850152363</v>
+        <v>3747.820342276934</v>
       </c>
       <c r="Q20" t="n">
-        <v>3993.278589123294</v>
+        <v>3993.278589123293</v>
       </c>
       <c r="R20" t="n">
-        <v>4050.650562342385</v>
+        <v>4050.650562342384</v>
       </c>
       <c r="S20" t="n">
         <v>3987.742753931516</v>
       </c>
       <c r="T20" t="n">
-        <v>3829.639794823712</v>
+        <v>3829.639794823711</v>
       </c>
       <c r="U20" t="n">
         <v>3624.098938897559</v>
@@ -5823,28 +5823,28 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H21" t="n">
-        <v>90.2845132994071</v>
+        <v>90.28451329940707</v>
       </c>
       <c r="I21" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684768</v>
       </c>
       <c r="J21" t="n">
         <v>173.3664220732603</v>
       </c>
       <c r="K21" t="n">
-        <v>409.3679357353759</v>
+        <v>409.367935735376</v>
       </c>
       <c r="L21" t="n">
-        <v>773.0236364049673</v>
+        <v>773.0236364049675</v>
       </c>
       <c r="M21" t="n">
-        <v>1216.749554727366</v>
+        <v>1228.967993078374</v>
       </c>
       <c r="N21" t="n">
-        <v>1686.628222675829</v>
+        <v>1698.846661026836</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.255610400967</v>
+        <v>2106.474048751974</v>
       </c>
       <c r="P21" t="n">
         <v>2414.297898223428</v>
@@ -5905,16 +5905,16 @@
         <v>130.7073815258293</v>
       </c>
       <c r="I22" t="n">
-        <v>81.0130112468477</v>
+        <v>81.01301124684768</v>
       </c>
       <c r="J22" t="n">
         <v>172.3418197763174</v>
       </c>
       <c r="K22" t="n">
-        <v>422.0008823505077</v>
+        <v>422.0008823505078</v>
       </c>
       <c r="L22" t="n">
-        <v>783.8508743283544</v>
+        <v>783.8508743283546</v>
       </c>
       <c r="M22" t="n">
         <v>1173.203172511728</v>
@@ -5926,7 +5926,7 @@
         <v>1904.556457231788</v>
       </c>
       <c r="P22" t="n">
-        <v>2182.77987659846</v>
+        <v>2182.779876598461</v>
       </c>
       <c r="Q22" t="n">
         <v>2306.443204496181</v>
@@ -5975,7 +5975,7 @@
         <v>1060.980065498023</v>
       </c>
       <c r="F23" t="n">
-        <v>697.9859191659862</v>
+        <v>697.985919165986</v>
       </c>
       <c r="G23" t="n">
         <v>330.8785067490567</v>
@@ -5987,28 +5987,28 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J23" t="n">
-        <v>267.6693855040387</v>
+        <v>267.6693855040388</v>
       </c>
       <c r="K23" t="n">
-        <v>919.0613815335225</v>
+        <v>598.1574230880697</v>
       </c>
       <c r="L23" t="n">
-        <v>1365.962777765778</v>
+        <v>1045.058819320325</v>
       </c>
       <c r="M23" t="n">
-        <v>1997.565487245523</v>
+        <v>1573.992168753192</v>
       </c>
       <c r="N23" t="n">
-        <v>2539.671339633839</v>
+        <v>2481.259881273488</v>
       </c>
       <c r="O23" t="n">
-        <v>3038.231262484531</v>
+        <v>3356.811983574298</v>
       </c>
       <c r="P23" t="n">
         <v>3747.820342276935</v>
       </c>
       <c r="Q23" t="n">
-        <v>3993.278589123294</v>
+        <v>3993.278589123293</v>
       </c>
       <c r="R23" t="n">
         <v>4050.650562342385</v>
@@ -6020,13 +6020,13 @@
         <v>3829.639794823712</v>
       </c>
       <c r="U23" t="n">
-        <v>3624.098938897559</v>
+        <v>3624.09893889756</v>
       </c>
       <c r="V23" t="n">
-        <v>3341.02781001156</v>
+        <v>3341.027810011561</v>
       </c>
       <c r="W23" t="n">
-        <v>3036.250913199016</v>
+        <v>3036.250913199017</v>
       </c>
       <c r="X23" t="n">
         <v>2710.776913395508</v>
@@ -6060,7 +6060,7 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H24" t="n">
-        <v>90.2845132994071</v>
+        <v>90.28451329940708</v>
       </c>
       <c r="I24" t="n">
         <v>81.0130112468477</v>
@@ -6069,22 +6069,22 @@
         <v>173.3664220732603</v>
       </c>
       <c r="K24" t="n">
-        <v>409.3679357353759</v>
+        <v>409.367935735376</v>
       </c>
       <c r="L24" t="n">
-        <v>773.0236364049673</v>
+        <v>773.0236364049675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.967993078374</v>
+        <v>1216.749554727367</v>
       </c>
       <c r="N24" t="n">
-        <v>1698.846661026836</v>
+        <v>1686.628222675829</v>
       </c>
       <c r="O24" t="n">
-        <v>2106.474048751974</v>
+        <v>2094.255610400968</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.297898223428</v>
+        <v>2402.079459872421</v>
       </c>
       <c r="Q24" t="n">
         <v>2570.15079320056</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>770.6512699940224</v>
+        <v>770.6512699940222</v>
       </c>
       <c r="C25" t="n">
-        <v>649.7068455236865</v>
+        <v>649.7068455236863</v>
       </c>
       <c r="D25" t="n">
-        <v>547.5819645689218</v>
+        <v>547.5819645689215</v>
       </c>
       <c r="E25" t="n">
-        <v>447.6606294440996</v>
+        <v>447.6606294440994</v>
       </c>
       <c r="F25" t="n">
-        <v>348.7624404037603</v>
+        <v>348.76244040376</v>
       </c>
       <c r="G25" t="n">
-        <v>229.0393762411775</v>
+        <v>229.0393762411773</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7073815258293</v>
+        <v>130.7073815258291</v>
       </c>
       <c r="I25" t="n">
         <v>81.0130112468477</v>
       </c>
       <c r="J25" t="n">
-        <v>172.3418197763174</v>
+        <v>172.3418197763173</v>
       </c>
       <c r="K25" t="n">
         <v>422.0008823505077</v>
@@ -6184,13 +6184,13 @@
         <v>1498.532001072486</v>
       </c>
       <c r="W25" t="n">
-        <v>1257.106589493097</v>
+        <v>1257.106589493096</v>
       </c>
       <c r="X25" t="n">
         <v>1077.10879705265</v>
       </c>
       <c r="Y25" t="n">
-        <v>904.3079763666912</v>
+        <v>904.3079763666909</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.60304528164212</v>
       </c>
       <c r="J26" t="n">
-        <v>449.6650685591861</v>
+        <v>282.2594195388332</v>
       </c>
       <c r="K26" t="n">
-        <v>1101.05706458867</v>
+        <v>612.7474571228641</v>
       </c>
       <c r="L26" t="n">
-        <v>1547.958460820926</v>
+        <v>1059.64885335512</v>
       </c>
       <c r="M26" t="n">
-        <v>2076.891810253792</v>
+        <v>2033.600600945891</v>
       </c>
       <c r="N26" t="n">
-        <v>3051.971117809971</v>
+        <v>2681.989021170136</v>
       </c>
       <c r="O26" t="n">
-        <v>3550.531040660664</v>
+        <v>3557.541123470946</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.120120453068</v>
+        <v>4267.13020326335</v>
       </c>
       <c r="Q26" t="n">
-        <v>4715.770208052732</v>
+        <v>4722.780290863015</v>
       </c>
       <c r="R26" t="n">
         <v>4780.152264082106</v>
@@ -6288,10 +6288,10 @@
         <v>637.6639291150116</v>
       </c>
       <c r="E27" t="n">
-        <v>478.4264741095561</v>
+        <v>478.426474109556</v>
       </c>
       <c r="F27" t="n">
-        <v>331.8919161364411</v>
+        <v>331.891916136441</v>
       </c>
       <c r="G27" t="n">
         <v>195.514519123717</v>
@@ -6306,22 +6306,22 @@
         <v>187.9564561080547</v>
       </c>
       <c r="K27" t="n">
-        <v>423.9579697701703</v>
+        <v>423.9579697701704</v>
       </c>
       <c r="L27" t="n">
-        <v>787.6136704397617</v>
+        <v>787.6136704397619</v>
       </c>
       <c r="M27" t="n">
         <v>1231.339588762161</v>
       </c>
       <c r="N27" t="n">
-        <v>1713.43669506163</v>
+        <v>1701.218256710624</v>
       </c>
       <c r="O27" t="n">
-        <v>2121.064082786769</v>
+        <v>2108.845644435762</v>
       </c>
       <c r="P27" t="n">
-        <v>2428.887932258222</v>
+        <v>2416.669493907216</v>
       </c>
       <c r="Q27" t="n">
         <v>2584.740827235354</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4589087021883</v>
+        <v>386.6597139248132</v>
       </c>
       <c r="C28" t="n">
-        <v>540.5227257742814</v>
+        <v>217.7235309969063</v>
       </c>
       <c r="D28" t="n">
-        <v>390.4060863619456</v>
+        <v>217.7235309969063</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4929927795525</v>
+        <v>217.7235309969063</v>
       </c>
       <c r="F28" t="n">
-        <v>95.60304528164212</v>
+        <v>193.2891740181947</v>
       </c>
       <c r="G28" t="n">
-        <v>95.60304528164212</v>
+        <v>193.2891740181947</v>
       </c>
       <c r="H28" t="n">
-        <v>95.60304528164212</v>
+        <v>193.2891740181947</v>
       </c>
       <c r="I28" t="n">
         <v>95.60304528164212</v>
@@ -6385,49 +6385,49 @@
         <v>139.8951313468465</v>
       </c>
       <c r="K28" t="n">
-        <v>342.5174714567715</v>
+        <v>342.5174714567717</v>
       </c>
       <c r="L28" t="n">
-        <v>657.330740970353</v>
+        <v>657.3307409703532</v>
       </c>
       <c r="M28" t="n">
-        <v>999.6463166894607</v>
+        <v>999.6463166894611</v>
       </c>
       <c r="N28" t="n">
         <v>1339.257009552754</v>
       </c>
       <c r="O28" t="n">
-        <v>1636.92615648099</v>
+        <v>1636.926156480991</v>
       </c>
       <c r="P28" t="n">
-        <v>1868.112853383397</v>
+        <v>1868.112853383398</v>
       </c>
       <c r="Q28" t="n">
-        <v>1944.739458816852</v>
+        <v>1944.739458816853</v>
       </c>
       <c r="R28" t="n">
         <v>1854.37006765947</v>
       </c>
       <c r="S28" t="n">
-        <v>1854.37006765947</v>
+        <v>1662.475300284743</v>
       </c>
       <c r="T28" t="n">
-        <v>1854.37006765947</v>
+        <v>1440.657471967086</v>
       </c>
       <c r="U28" t="n">
-        <v>1565.266547003575</v>
+        <v>1151.553951311191</v>
       </c>
       <c r="V28" t="n">
-        <v>1310.582058797688</v>
+        <v>896.8694631053039</v>
       </c>
       <c r="W28" t="n">
-        <v>1158.241038743736</v>
+        <v>607.4522930683434</v>
       </c>
       <c r="X28" t="n">
-        <v>930.2514878457184</v>
+        <v>607.4522930683434</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.4589087021883</v>
+        <v>386.6597139248132</v>
       </c>
     </row>
     <row r="29">
@@ -6443,58 +6443,58 @@
         <v>2006.626375409458</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.360676802707</v>
+        <v>1648.360676802708</v>
       </c>
       <c r="E29" t="n">
         <v>1262.572424204463</v>
       </c>
       <c r="F29" t="n">
-        <v>851.5865194148555</v>
+        <v>851.5865194148558</v>
       </c>
       <c r="G29" t="n">
-        <v>436.4873485403557</v>
+        <v>436.4873485403555</v>
       </c>
       <c r="H29" t="n">
-        <v>138.6300945805757</v>
+        <v>138.6300945805756</v>
       </c>
       <c r="I29" t="n">
-        <v>95.60304528164214</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="J29" t="n">
-        <v>391.6158956952174</v>
+        <v>282.2594195388332</v>
       </c>
       <c r="K29" t="n">
-        <v>1043.007891724701</v>
+        <v>612.7474571228641</v>
       </c>
       <c r="L29" t="n">
-        <v>1489.909287956957</v>
+        <v>1112.917108506838</v>
       </c>
       <c r="M29" t="n">
-        <v>2018.842637389823</v>
+        <v>1641.850457939704</v>
       </c>
       <c r="N29" t="n">
-        <v>2993.921944946003</v>
+        <v>2616.929765495884</v>
       </c>
       <c r="O29" t="n">
-        <v>3492.481867796695</v>
+        <v>3492.481867796694</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.070947589099</v>
+        <v>4202.070947589098</v>
       </c>
       <c r="Q29" t="n">
-        <v>4657.721035188763</v>
+        <v>4657.721035188762</v>
       </c>
       <c r="R29" t="n">
-        <v>4780.152264082107</v>
+        <v>4780.152264082106</v>
       </c>
       <c r="S29" t="n">
         <v>4669.252697213667</v>
       </c>
       <c r="T29" t="n">
-        <v>4463.157979648292</v>
+        <v>4463.157979648291</v>
       </c>
       <c r="U29" t="n">
-        <v>4209.625365264568</v>
+        <v>4209.625365264567</v>
       </c>
       <c r="V29" t="n">
         <v>3878.562477920997</v>
@@ -6525,10 +6525,10 @@
         <v>637.6639291150116</v>
       </c>
       <c r="E30" t="n">
-        <v>478.4264741095561</v>
+        <v>478.426474109556</v>
       </c>
       <c r="F30" t="n">
-        <v>331.8919161364411</v>
+        <v>331.891916136441</v>
       </c>
       <c r="G30" t="n">
         <v>195.514519123717</v>
@@ -6537,25 +6537,25 @@
         <v>104.8745473342015</v>
       </c>
       <c r="I30" t="n">
-        <v>95.60304528164214</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="J30" t="n">
         <v>187.9564561080547</v>
       </c>
       <c r="K30" t="n">
-        <v>423.9579697701703</v>
+        <v>423.9579697701704</v>
       </c>
       <c r="L30" t="n">
-        <v>787.6136704397617</v>
+        <v>787.6136704397619</v>
       </c>
       <c r="M30" t="n">
         <v>1231.339588762161</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.218256710623</v>
+        <v>1701.218256710624</v>
       </c>
       <c r="O30" t="n">
-        <v>2108.845644435761</v>
+        <v>2108.845644435762</v>
       </c>
       <c r="P30" t="n">
         <v>2428.887932258222</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>645.4187820948264</v>
+        <v>264.539228209549</v>
       </c>
       <c r="C31" t="n">
-        <v>490.295760928441</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="D31" t="n">
-        <v>340.1791215161051</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="E31" t="n">
-        <v>340.1791215161051</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="F31" t="n">
-        <v>193.2891740181947</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="G31" t="n">
-        <v>193.2891740181947</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="H31" t="n">
-        <v>193.2891740181947</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="I31" t="n">
-        <v>95.60304528164214</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="J31" t="n">
-        <v>139.8951313468466</v>
+        <v>139.8951313468465</v>
       </c>
       <c r="K31" t="n">
-        <v>342.5174714567715</v>
+        <v>342.5174714567717</v>
       </c>
       <c r="L31" t="n">
-        <v>657.3307409703528</v>
+        <v>657.3307409703531</v>
       </c>
       <c r="M31" t="n">
-        <v>999.6463166894607</v>
+        <v>999.6463166894609</v>
       </c>
       <c r="N31" t="n">
         <v>1339.257009552754</v>
       </c>
       <c r="O31" t="n">
-        <v>1636.92615648099</v>
+        <v>1636.926156480991</v>
       </c>
       <c r="P31" t="n">
-        <v>1868.112853383397</v>
+        <v>1868.112853383398</v>
       </c>
       <c r="Q31" t="n">
-        <v>1944.739458816852</v>
+        <v>1944.739458816853</v>
       </c>
       <c r="R31" t="n">
-        <v>1854.370067659469</v>
+        <v>1854.37006765947</v>
       </c>
       <c r="S31" t="n">
-        <v>1854.370067659469</v>
+        <v>1662.475300284743</v>
       </c>
       <c r="T31" t="n">
-        <v>1854.370067659469</v>
+        <v>1440.657471967086</v>
       </c>
       <c r="U31" t="n">
-        <v>1565.266547003574</v>
+        <v>1151.553951311191</v>
       </c>
       <c r="V31" t="n">
-        <v>1565.266547003574</v>
+        <v>896.869463105304</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.849376966614</v>
+        <v>607.4522930683434</v>
       </c>
       <c r="X31" t="n">
-        <v>1047.859826068596</v>
+        <v>446.1876930397887</v>
       </c>
       <c r="Y31" t="n">
-        <v>827.0672469250661</v>
+        <v>446.1876930397888</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2362.460229013695</v>
+        <v>2362.460229013696</v>
       </c>
       <c r="C32" t="n">
         <v>1995.294652027118</v>
@@ -6686,40 +6686,40 @@
         <v>1254.834580729791</v>
       </c>
       <c r="F32" t="n">
-        <v>845.6456158940168</v>
+        <v>845.6456158940175</v>
       </c>
       <c r="G32" t="n">
         <v>432.343384973351</v>
       </c>
       <c r="H32" t="n">
-        <v>136.283070967405</v>
+        <v>136.2830709674048</v>
       </c>
       <c r="I32" t="n">
-        <v>95.05296162230523</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="J32" t="n">
-        <v>361.0378044079195</v>
+        <v>281.7093358794963</v>
       </c>
       <c r="K32" t="n">
-        <v>691.5258419919503</v>
+        <v>933.1013319089802</v>
       </c>
       <c r="L32" t="n">
-        <v>1138.427238224206</v>
+        <v>1380.002728141236</v>
       </c>
       <c r="M32" t="n">
-        <v>2112.378985814977</v>
+        <v>1991.338454422977</v>
       </c>
       <c r="N32" t="n">
-        <v>2654.484838203292</v>
+        <v>2966.417761979157</v>
       </c>
       <c r="O32" t="n">
-        <v>3530.036940504102</v>
+        <v>3464.977684829849</v>
       </c>
       <c r="P32" t="n">
-        <v>4239.626020296506</v>
+        <v>4174.566764622253</v>
       </c>
       <c r="Q32" t="n">
-        <v>4695.27610789617</v>
+        <v>4630.216852221917</v>
       </c>
       <c r="R32" t="n">
         <v>4752.648081115261</v>
@@ -6728,7 +6728,7 @@
         <v>4643.545454200656</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.247676589114</v>
+        <v>4439.247676589113</v>
       </c>
       <c r="U32" t="n">
         <v>4187.512002159225</v>
@@ -6737,13 +6737,13 @@
         <v>3858.246054769488</v>
       </c>
       <c r="W32" t="n">
-        <v>3507.274339453207</v>
+        <v>3507.274339453208</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.605521145961</v>
+        <v>3135.605521145962</v>
       </c>
       <c r="Y32" t="n">
-        <v>2747.263129123983</v>
+        <v>2747.263129123984</v>
       </c>
     </row>
     <row r="33">
@@ -6762,10 +6762,10 @@
         <v>637.1138454556747</v>
       </c>
       <c r="E33" t="n">
-        <v>477.8763904502192</v>
+        <v>477.8763904502191</v>
       </c>
       <c r="F33" t="n">
-        <v>331.3418324771042</v>
+        <v>331.341832477104</v>
       </c>
       <c r="G33" t="n">
         <v>194.9644354643801</v>
@@ -6774,13 +6774,13 @@
         <v>104.3244636748646</v>
       </c>
       <c r="I33" t="n">
-        <v>95.05296162230523</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="J33" t="n">
         <v>187.4063724487178</v>
       </c>
       <c r="K33" t="n">
-        <v>435.6263244618406</v>
+        <v>423.4078861108335</v>
       </c>
       <c r="L33" t="n">
         <v>799.282025131432</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>534.5818222534431</v>
+        <v>243.372661080807</v>
       </c>
       <c r="C34" t="n">
-        <v>534.5818222534431</v>
+        <v>243.372661080807</v>
       </c>
       <c r="D34" t="n">
-        <v>386.2621227949412</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="E34" t="n">
-        <v>240.1459691663819</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="F34" t="n">
-        <v>95.05296162230523</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="G34" t="n">
-        <v>95.05296162230523</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="H34" t="n">
-        <v>95.05296162230523</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="I34" t="n">
-        <v>95.05296162230523</v>
+        <v>95.05296162230522</v>
       </c>
       <c r="J34" t="n">
-        <v>141.1062285362621</v>
+        <v>141.1062285362623</v>
       </c>
       <c r="K34" t="n">
-        <v>345.4897494949397</v>
+        <v>345.4897494949401</v>
       </c>
       <c r="L34" t="n">
-        <v>662.0641998572736</v>
+        <v>662.0641998572742</v>
       </c>
       <c r="M34" t="n">
-        <v>1006.140956425134</v>
+        <v>1006.140956425135</v>
       </c>
       <c r="N34" t="n">
-        <v>1347.512830137179</v>
+        <v>1347.51283013718</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.943157914169</v>
+        <v>1646.94315791417</v>
       </c>
       <c r="P34" t="n">
-        <v>1879.891035665328</v>
+        <v>1879.891035665329</v>
       </c>
       <c r="Q34" t="n">
-        <v>1958.278821947536</v>
+        <v>1958.278821947537</v>
       </c>
       <c r="R34" t="n">
-        <v>1869.706370743987</v>
+        <v>1869.706370743988</v>
       </c>
       <c r="S34" t="n">
-        <v>1869.706370743987</v>
+        <v>1679.608543323094</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.706370743987</v>
+        <v>1459.587654959271</v>
       </c>
       <c r="U34" t="n">
-        <v>1582.399790041925</v>
+        <v>1172.28107425721</v>
       </c>
       <c r="V34" t="n">
-        <v>1329.512241789872</v>
+        <v>937.037026984523</v>
       </c>
       <c r="W34" t="n">
-        <v>1041.892011706746</v>
+        <v>649.4167969013963</v>
       </c>
       <c r="X34" t="n">
-        <v>815.6994007625618</v>
+        <v>423.2241859572127</v>
       </c>
       <c r="Y34" t="n">
-        <v>714.433347129849</v>
+        <v>423.2241859572127</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2030.021258270716</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.050499787875</v>
+        <v>1709.050499787876</v>
       </c>
       <c r="D35" t="n">
         <v>1398.776559638696</v>
@@ -6923,7 +6923,7 @@
         <v>1060.980065498023</v>
       </c>
       <c r="F35" t="n">
-        <v>697.9859191659862</v>
+        <v>697.9859191659866</v>
       </c>
       <c r="G35" t="n">
         <v>330.8785067490567</v>
@@ -6935,40 +6935,40 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J35" t="n">
-        <v>435.0750345243918</v>
+        <v>267.6693855040388</v>
       </c>
       <c r="K35" t="n">
-        <v>765.5630721084226</v>
+        <v>919.0613815335228</v>
       </c>
       <c r="L35" t="n">
-        <v>1212.464468340678</v>
+        <v>1365.962777765778</v>
       </c>
       <c r="M35" t="n">
-        <v>1741.397817773545</v>
+        <v>2316.146208335291</v>
       </c>
       <c r="N35" t="n">
-        <v>2283.50367016186</v>
+        <v>2858.252060723606</v>
       </c>
       <c r="O35" t="n">
-        <v>3038.231262484531</v>
+        <v>3356.811983574298</v>
       </c>
       <c r="P35" t="n">
         <v>3747.820342276935</v>
       </c>
       <c r="Q35" t="n">
-        <v>3993.278589123294</v>
+        <v>3993.278589123293</v>
       </c>
       <c r="R35" t="n">
         <v>4050.650562342385</v>
       </c>
       <c r="S35" t="n">
-        <v>3987.742753931517</v>
+        <v>3987.742753931516</v>
       </c>
       <c r="T35" t="n">
         <v>3829.639794823712</v>
       </c>
       <c r="U35" t="n">
-        <v>3624.09893889756</v>
+        <v>3624.098938897559</v>
       </c>
       <c r="V35" t="n">
         <v>3341.02781001156</v>
@@ -7008,7 +7008,7 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H36" t="n">
-        <v>90.2845132994071</v>
+        <v>90.28451329940708</v>
       </c>
       <c r="I36" t="n">
         <v>81.0130112468477</v>
@@ -7017,22 +7017,22 @@
         <v>173.3664220732603</v>
       </c>
       <c r="K36" t="n">
-        <v>409.3679357353759</v>
+        <v>409.367935735376</v>
       </c>
       <c r="L36" t="n">
-        <v>773.0236364049673</v>
+        <v>773.0236364049675</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.967993078374</v>
+        <v>1216.749554727367</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.846661026836</v>
+        <v>1686.628222675829</v>
       </c>
       <c r="O36" t="n">
-        <v>2106.474048751974</v>
+        <v>2094.255610400968</v>
       </c>
       <c r="P36" t="n">
-        <v>2414.297898223428</v>
+        <v>2402.079459872421</v>
       </c>
       <c r="Q36" t="n">
         <v>2570.15079320056</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>770.6512699940226</v>
+        <v>770.6512699940223</v>
       </c>
       <c r="C37" t="n">
-        <v>649.7068455236866</v>
+        <v>649.7068455236864</v>
       </c>
       <c r="D37" t="n">
-        <v>547.5819645689219</v>
+        <v>547.5819645689216</v>
       </c>
       <c r="E37" t="n">
-        <v>447.6606294440997</v>
+        <v>447.6606294440995</v>
       </c>
       <c r="F37" t="n">
-        <v>348.7624404037603</v>
+        <v>348.7624404037602</v>
       </c>
       <c r="G37" t="n">
-        <v>229.0393762411776</v>
+        <v>229.0393762411775</v>
       </c>
       <c r="H37" t="n">
         <v>130.7073815258293</v>
@@ -7093,52 +7093,52 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J37" t="n">
-        <v>172.3418197763174</v>
+        <v>172.3418197763162</v>
       </c>
       <c r="K37" t="n">
-        <v>422.0008823505077</v>
+        <v>422.0008823505067</v>
       </c>
       <c r="L37" t="n">
-        <v>783.8508743283544</v>
+        <v>783.8508743283535</v>
       </c>
       <c r="M37" t="n">
-        <v>1173.203172511728</v>
+        <v>1173.203172511727</v>
       </c>
       <c r="N37" t="n">
-        <v>1559.850587839286</v>
+        <v>1559.850587839285</v>
       </c>
       <c r="O37" t="n">
-        <v>1904.556457231788</v>
+        <v>1904.556457231787</v>
       </c>
       <c r="P37" t="n">
-        <v>2182.77987659846</v>
+        <v>2182.779876598459</v>
       </c>
       <c r="Q37" t="n">
-        <v>2306.443204496181</v>
+        <v>2306.44320449618</v>
       </c>
       <c r="R37" t="n">
-        <v>2264.065571796369</v>
+        <v>2264.065571796368</v>
       </c>
       <c r="S37" t="n">
-        <v>2120.162562879213</v>
+        <v>2120.162562879212</v>
       </c>
       <c r="T37" t="n">
         <v>1946.336493019126</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.224730820803</v>
+        <v>1705.224730820802</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.532001072487</v>
+        <v>1498.532001072486</v>
       </c>
       <c r="W37" t="n">
-        <v>1257.106589493097</v>
+        <v>1257.106589493096</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.108797052651</v>
+        <v>1077.10879705265</v>
       </c>
       <c r="Y37" t="n">
-        <v>904.3079763666914</v>
+        <v>904.307976366691</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2030.021258270716</v>
       </c>
       <c r="C38" t="n">
-        <v>1709.050499787876</v>
+        <v>1709.050499787875</v>
       </c>
       <c r="D38" t="n">
         <v>1398.776559638696</v>
       </c>
       <c r="E38" t="n">
-        <v>1060.980065498023</v>
+        <v>1060.980065498022</v>
       </c>
       <c r="F38" t="n">
-        <v>697.9859191659859</v>
+        <v>697.9859191659858</v>
       </c>
       <c r="G38" t="n">
         <v>330.8785067490567</v>
@@ -7178,13 +7178,13 @@
         <v>919.0613815335228</v>
       </c>
       <c r="L38" t="n">
-        <v>1410.220679452306</v>
+        <v>1365.962777765778</v>
       </c>
       <c r="M38" t="n">
-        <v>1939.154028885173</v>
+        <v>2316.146208335291</v>
       </c>
       <c r="N38" t="n">
-        <v>2481.259881273488</v>
+        <v>2858.252060723606</v>
       </c>
       <c r="O38" t="n">
         <v>3356.811983574298</v>
@@ -7199,19 +7199,19 @@
         <v>4050.650562342385</v>
       </c>
       <c r="S38" t="n">
-        <v>3987.742753931517</v>
+        <v>3987.742753931516</v>
       </c>
       <c r="T38" t="n">
         <v>3829.639794823712</v>
       </c>
       <c r="U38" t="n">
-        <v>3624.09893889756</v>
+        <v>3624.098938897559</v>
       </c>
       <c r="V38" t="n">
         <v>3341.02781001156</v>
       </c>
       <c r="W38" t="n">
-        <v>3036.250913199017</v>
+        <v>3036.250913199016</v>
       </c>
       <c r="X38" t="n">
         <v>2710.776913395508</v>
@@ -7251,10 +7251,10 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J39" t="n">
-        <v>173.3664220732603</v>
+        <v>185.5848604242673</v>
       </c>
       <c r="K39" t="n">
-        <v>409.367935735376</v>
+        <v>421.586374086383</v>
       </c>
       <c r="L39" t="n">
         <v>785.2420747559745</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>770.6512699940233</v>
+        <v>770.6512699940226</v>
       </c>
       <c r="C40" t="n">
-        <v>649.7068455236873</v>
+        <v>649.7068455236866</v>
       </c>
       <c r="D40" t="n">
-        <v>547.5819645689226</v>
+        <v>547.5819645689219</v>
       </c>
       <c r="E40" t="n">
-        <v>447.6606294441003</v>
+        <v>447.6606294440997</v>
       </c>
       <c r="F40" t="n">
-        <v>348.7624404037609</v>
+        <v>348.7624404037603</v>
       </c>
       <c r="G40" t="n">
-        <v>229.0393762411782</v>
+        <v>229.0393762411776</v>
       </c>
       <c r="H40" t="n">
         <v>130.7073815258293</v>
@@ -7333,10 +7333,10 @@
         <v>172.3418197763174</v>
       </c>
       <c r="K40" t="n">
-        <v>422.0008823505076</v>
+        <v>422.0008823505078</v>
       </c>
       <c r="L40" t="n">
-        <v>783.8508743283544</v>
+        <v>783.8508743283545</v>
       </c>
       <c r="M40" t="n">
         <v>1173.203172511728</v>
@@ -7345,22 +7345,22 @@
         <v>1559.850587839286</v>
       </c>
       <c r="O40" t="n">
-        <v>1904.556457231789</v>
+        <v>1904.556457231788</v>
       </c>
       <c r="P40" t="n">
-        <v>2182.779876598461</v>
+        <v>2182.77987659846</v>
       </c>
       <c r="Q40" t="n">
         <v>2306.443204496181</v>
       </c>
       <c r="R40" t="n">
-        <v>2264.06557179637</v>
+        <v>2264.065571796369</v>
       </c>
       <c r="S40" t="n">
         <v>2120.162562879213</v>
       </c>
       <c r="T40" t="n">
-        <v>1946.336493019127</v>
+        <v>1946.336493019126</v>
       </c>
       <c r="U40" t="n">
         <v>1705.224730820803</v>
@@ -7375,7 +7375,7 @@
         <v>1077.108797052651</v>
       </c>
       <c r="Y40" t="n">
-        <v>904.3079763666919</v>
+        <v>904.3079763666914</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1709.611100598641</v>
+        <v>1523.210382125954</v>
       </c>
       <c r="C41" t="n">
-        <v>1388.640342115801</v>
+        <v>1202.239623643113</v>
       </c>
       <c r="D41" t="n">
-        <v>1388.640342115801</v>
+        <v>1202.239623643113</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.843847975127</v>
+        <v>1050.843847975128</v>
       </c>
       <c r="F41" t="n">
-        <v>687.8497016430907</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="G41" t="n">
-        <v>320.7422892261613</v>
+        <v>320.7422892261614</v>
       </c>
       <c r="H41" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="I41" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="J41" t="n">
-        <v>257.5331679811435</v>
+        <v>424.9388170014966</v>
       </c>
       <c r="K41" t="n">
-        <v>588.0212055651743</v>
+        <v>755.4268545855275</v>
       </c>
       <c r="L41" t="n">
-        <v>1034.92260179743</v>
+        <v>1202.328250817783</v>
       </c>
       <c r="M41" t="n">
-        <v>1563.855951230297</v>
+        <v>1731.26160025065</v>
       </c>
       <c r="N41" t="n">
-        <v>2105.961803618612</v>
+        <v>2273.367452638965</v>
       </c>
       <c r="O41" t="n">
-        <v>2604.521726469304</v>
+        <v>2850.001107429536</v>
       </c>
       <c r="P41" t="n">
-        <v>3241.009466132174</v>
+        <v>3241.009466132173</v>
       </c>
       <c r="Q41" t="n">
-        <v>3486.467712978533</v>
+        <v>3486.467712978531</v>
       </c>
       <c r="R41" t="n">
         <v>3543.839686197623</v>
       </c>
       <c r="S41" t="n">
-        <v>3543.839686197623</v>
+        <v>3480.931877786754</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.736727089819</v>
+        <v>3322.82891867895</v>
       </c>
       <c r="U41" t="n">
-        <v>3180.195871163667</v>
+        <v>3117.288062752797</v>
       </c>
       <c r="V41" t="n">
-        <v>2897.124742277667</v>
+        <v>2834.216933866798</v>
       </c>
       <c r="W41" t="n">
-        <v>2592.347845465124</v>
+        <v>2529.440037054254</v>
       </c>
       <c r="X41" t="n">
-        <v>2266.873845661615</v>
+        <v>2203.966037250746</v>
       </c>
       <c r="Y41" t="n">
-        <v>1924.726272143374</v>
+        <v>1861.818463732505</v>
       </c>
     </row>
     <row r="42">
@@ -7473,37 +7473,37 @@
         <v>612.9376775573219</v>
       </c>
       <c r="E42" t="n">
-        <v>453.7002225518664</v>
+        <v>453.7002225518663</v>
       </c>
       <c r="F42" t="n">
-        <v>307.1656645787514</v>
+        <v>307.1656645787513</v>
       </c>
       <c r="G42" t="n">
-        <v>170.7882675660274</v>
+        <v>170.7882675660273</v>
       </c>
       <c r="H42" t="n">
-        <v>80.14829577651187</v>
+        <v>80.14829577651183</v>
       </c>
       <c r="I42" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="J42" t="n">
         <v>163.2302045503651</v>
       </c>
       <c r="K42" t="n">
-        <v>399.2317182124806</v>
+        <v>399.2317182124808</v>
       </c>
       <c r="L42" t="n">
-        <v>762.8874188820721</v>
+        <v>775.105857233079</v>
       </c>
       <c r="M42" t="n">
-        <v>1206.613337204471</v>
+        <v>1218.831775555478</v>
       </c>
       <c r="N42" t="n">
-        <v>1676.492005152934</v>
+        <v>1688.71044350394</v>
       </c>
       <c r="O42" t="n">
-        <v>2084.119392878072</v>
+        <v>2096.337831229079</v>
       </c>
       <c r="P42" t="n">
         <v>2404.161680700533</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>760.5150524711269</v>
+        <v>760.5150524711271</v>
       </c>
       <c r="C43" t="n">
-        <v>639.5706280007909</v>
+        <v>639.5706280007911</v>
       </c>
       <c r="D43" t="n">
-        <v>537.4457470460261</v>
+        <v>537.4457470460262</v>
       </c>
       <c r="E43" t="n">
-        <v>437.5244119212039</v>
+        <v>437.5244119212041</v>
       </c>
       <c r="F43" t="n">
         <v>338.6262228808647</v>
@@ -7561,43 +7561,43 @@
         <v>218.9031587182819</v>
       </c>
       <c r="H43" t="n">
-        <v>120.5711640029346</v>
+        <v>120.5711640029331</v>
       </c>
       <c r="I43" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="J43" t="n">
         <v>162.2056022534221</v>
       </c>
       <c r="K43" t="n">
-        <v>411.8646648276124</v>
+        <v>411.8646648276125</v>
       </c>
       <c r="L43" t="n">
         <v>773.7146568054591</v>
       </c>
       <c r="M43" t="n">
-        <v>1163.066954988832</v>
+        <v>1163.066954988833</v>
       </c>
       <c r="N43" t="n">
-        <v>1549.71437031639</v>
+        <v>1549.714370316391</v>
       </c>
       <c r="O43" t="n">
-        <v>1894.420239708892</v>
+        <v>1894.420239708893</v>
       </c>
       <c r="P43" t="n">
-        <v>2172.643659075564</v>
+        <v>2172.643659075565</v>
       </c>
       <c r="Q43" t="n">
         <v>2296.306986973285</v>
       </c>
       <c r="R43" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S43" t="n">
         <v>2110.026345356317</v>
       </c>
       <c r="T43" t="n">
-        <v>1936.20027549623</v>
+        <v>1936.200275496231</v>
       </c>
       <c r="U43" t="n">
         <v>1695.088513297907</v>
@@ -7612,7 +7612,7 @@
         <v>1066.972579529755</v>
       </c>
       <c r="Y43" t="n">
-        <v>894.1717588437956</v>
+        <v>894.1717588437958</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2006.787341037269</v>
+        <v>1523.210382125954</v>
       </c>
       <c r="C44" t="n">
-        <v>1685.816582554428</v>
+        <v>1202.239623643113</v>
       </c>
       <c r="D44" t="n">
-        <v>1375.542642405249</v>
+        <v>891.9656834939331</v>
       </c>
       <c r="E44" t="n">
-        <v>1037.746148264576</v>
+        <v>891.9656834939331</v>
       </c>
       <c r="F44" t="n">
-        <v>674.7520019325391</v>
+        <v>528.9715371618964</v>
       </c>
       <c r="G44" t="n">
-        <v>307.6445895156091</v>
+        <v>161.8641247449671</v>
       </c>
       <c r="H44" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="I44" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="J44" t="n">
         <v>257.5331679811435</v>
       </c>
       <c r="K44" t="n">
-        <v>588.0212055651743</v>
+        <v>588.0212055651745</v>
       </c>
       <c r="L44" t="n">
-        <v>1280.401982757664</v>
+        <v>1034.92260179743</v>
       </c>
       <c r="M44" t="n">
-        <v>1809.335332190531</v>
+        <v>1744.276076516277</v>
       </c>
       <c r="N44" t="n">
-        <v>2351.441184578846</v>
+        <v>2286.381928904592</v>
       </c>
       <c r="O44" t="n">
-        <v>2850.001107429538</v>
+        <v>2784.941851755284</v>
       </c>
       <c r="P44" t="n">
-        <v>3241.009466132174</v>
+        <v>3175.950210457921</v>
       </c>
       <c r="Q44" t="n">
-        <v>3486.467712978533</v>
+        <v>3421.408457304279</v>
       </c>
       <c r="R44" t="n">
         <v>3543.839686197623</v>
       </c>
       <c r="S44" t="n">
-        <v>3480.931877786755</v>
+        <v>3480.931877786754</v>
       </c>
       <c r="T44" t="n">
-        <v>3480.931877786755</v>
+        <v>3322.82891867895</v>
       </c>
       <c r="U44" t="n">
-        <v>3275.391021860603</v>
+        <v>3117.288062752797</v>
       </c>
       <c r="V44" t="n">
-        <v>2992.319892974603</v>
+        <v>2834.216933866797</v>
       </c>
       <c r="W44" t="n">
-        <v>2687.54299616206</v>
+        <v>2529.440037054254</v>
       </c>
       <c r="X44" t="n">
-        <v>2687.54299616206</v>
+        <v>2203.966037250745</v>
       </c>
       <c r="Y44" t="n">
-        <v>2345.39542264382</v>
+        <v>1861.818463732505</v>
       </c>
     </row>
     <row r="45">
@@ -7710,34 +7710,34 @@
         <v>612.9376775573219</v>
       </c>
       <c r="E45" t="n">
-        <v>453.7002225518664</v>
+        <v>453.7002225518663</v>
       </c>
       <c r="F45" t="n">
-        <v>307.1656645787514</v>
+        <v>307.1656645787513</v>
       </c>
       <c r="G45" t="n">
-        <v>170.7882675660274</v>
+        <v>170.7882675660273</v>
       </c>
       <c r="H45" t="n">
-        <v>80.14829577651187</v>
+        <v>80.14829577651183</v>
       </c>
       <c r="I45" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="J45" t="n">
         <v>163.2302045503651</v>
       </c>
       <c r="K45" t="n">
-        <v>399.2317182124806</v>
+        <v>399.2317182124808</v>
       </c>
       <c r="L45" t="n">
-        <v>762.8874188820721</v>
+        <v>762.8874188820723</v>
       </c>
       <c r="M45" t="n">
         <v>1206.613337204471</v>
       </c>
       <c r="N45" t="n">
-        <v>1676.492005152934</v>
+        <v>1688.71044350394</v>
       </c>
       <c r="O45" t="n">
         <v>2096.337831229079</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>760.5150524711269</v>
+        <v>760.5150524711271</v>
       </c>
       <c r="C46" t="n">
-        <v>639.570628000791</v>
+        <v>639.5706280007912</v>
       </c>
       <c r="D46" t="n">
-        <v>537.4457470460262</v>
+        <v>537.4457470460264</v>
       </c>
       <c r="E46" t="n">
-        <v>437.5244119212041</v>
+        <v>437.5244119212043</v>
       </c>
       <c r="F46" t="n">
-        <v>338.6262228808648</v>
+        <v>338.6262228808649</v>
       </c>
       <c r="G46" t="n">
         <v>218.9031587182822</v>
       </c>
       <c r="H46" t="n">
-        <v>120.571164002934</v>
+        <v>120.5711640029341</v>
       </c>
       <c r="I46" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395245</v>
       </c>
       <c r="J46" t="n">
         <v>162.2056022534222</v>
       </c>
       <c r="K46" t="n">
-        <v>411.8646648276126</v>
+        <v>411.8646648276127</v>
       </c>
       <c r="L46" t="n">
-        <v>773.7146568054593</v>
+        <v>773.7146568054595</v>
       </c>
       <c r="M46" t="n">
         <v>1163.066954988833</v>
@@ -7822,19 +7822,19 @@
         <v>1894.420239708893</v>
       </c>
       <c r="P46" t="n">
-        <v>2172.643659075565</v>
+        <v>2172.643659075566</v>
       </c>
       <c r="Q46" t="n">
-        <v>2296.306986973285</v>
+        <v>2296.306986973286</v>
       </c>
       <c r="R46" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S46" t="n">
-        <v>2110.026345356317</v>
+        <v>2110.026345356318</v>
       </c>
       <c r="T46" t="n">
-        <v>1936.20027549623</v>
+        <v>1936.200275496232</v>
       </c>
       <c r="U46" t="n">
         <v>1695.088513297907</v>
@@ -7843,13 +7843,13 @@
         <v>1488.395783549591</v>
       </c>
       <c r="W46" t="n">
-        <v>1246.970371970201</v>
+        <v>1246.970371970202</v>
       </c>
       <c r="X46" t="n">
         <v>1066.972579529755</v>
       </c>
       <c r="Y46" t="n">
-        <v>894.1717588437955</v>
+        <v>894.1717588437958</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>78.86235549482984</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>78.8623554948293</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>12.34185692020918</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>1.021691808656755</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>247.9589706669015</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.86235549483021</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>12.34185692020901</v>
+        <v>12.34185692020873</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>149.8204263280542</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>256.4085172891854</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>12.34185692020905</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>12.34185692020935</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>47.05165559819437</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>119.6743398220696</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>12.34185692020901</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.34185692020964</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>103.7064242897765</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>368.8503637696778</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>12.34185692020935</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="R24" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>107.3561291272024</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>7.080891727558111</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>12.34185692020941</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="R27" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>110.4610870266508</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>53.80631833506851</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>12.34185692020964</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.12976619032651</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>83.23472408977216</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>12.34185692020927</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>12.34185692020907</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>425.5051324612582</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>258.7552216888673</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>12.34185692020935</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="R36" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>44.70495119851273</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>425.5051324612582</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>12.34185692020907</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>12.34185692020907</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>78.86235549482728</v>
       </c>
       <c r="P41" t="n">
-        <v>247.9589706669031</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>12.34185692020878</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>12.34185692020918</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>247.9589706669031</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>182.2425507939188</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>12.34185692020856</v>
       </c>
       <c r="O45" t="n">
-        <v>12.34185692020895</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.4185291992665</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.4363382927601</v>
       </c>
       <c r="H11" t="n">
-        <v>95.01065250962064</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.27873032675967</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>128.2715737428882</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>132.3437071669326</v>
       </c>
       <c r="E14" t="n">
-        <v>334.4185291992665</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.3642048687162</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>157.289382836381</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>121.2310346140068</v>
       </c>
       <c r="G28" t="n">
         <v>166.0376743939522</v>
@@ -24619,7 +24619,7 @@
         <v>144.86051564119</v>
       </c>
       <c r="I28" t="n">
-        <v>96.70926744918705</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.97581970098</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5996500344806</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>135.7053884831783</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.67503014390664</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0376743939522</v>
@@ -24856,7 +24856,7 @@
         <v>144.86051564119</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.70926744918705</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.97581970098</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5996500344806</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.05770136076802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.4678505443324</v>
+        <v>165.4678505443322</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.6549920922736</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.6420774686356</v>
       </c>
       <c r="G34" t="n">
-        <v>164.2587038396567</v>
+        <v>164.2587038396566</v>
       </c>
       <c r="H34" t="n">
-        <v>143.0815450868945</v>
+        <v>143.0815450868944</v>
       </c>
       <c r="I34" t="n">
-        <v>94.93029689489158</v>
+        <v>94.93029689489146</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>188.1968491466845</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8206794801851</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>17.4670659695722</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.5522897014137</v>
+        <v>216.8056827977992</v>
       </c>
     </row>
     <row r="35">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.2579809612001</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>184.536711287961</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2787303267597</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.008970684779342e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.4185291992665</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>12.96672271344667</v>
+        <v>157.2893828363823</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.5219295167263</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.2192598054737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>641317.3896367706</v>
+        <v>641317.3896367705</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686606.476737024</v>
+        <v>686606.4767370239</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>686606.476737024</v>
+        <v>686606.4767370239</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686606.476737024</v>
+        <v>686606.4767370239</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685032.65785889</v>
+        <v>685032.6578588901</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>641317.3896367706</v>
+        <v>641317.3896367705</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811867</v>
       </c>
       <c r="C2" t="n">
         <v>778312.5217811865</v>
       </c>
       <c r="D2" t="n">
-        <v>779352.4549391628</v>
+        <v>779352.4549391629</v>
       </c>
       <c r="E2" t="n">
-        <v>742806.7290629335</v>
+        <v>742806.7290629332</v>
       </c>
       <c r="F2" t="n">
-        <v>742806.7290629335</v>
+        <v>742806.7290629331</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="H2" t="n">
         <v>779989.6813710697</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.6813710702</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="J2" t="n">
         <v>754163.6586248935</v>
       </c>
       <c r="K2" t="n">
-        <v>754163.6586248939</v>
+        <v>754163.6586248938</v>
       </c>
       <c r="L2" t="n">
         <v>755130.654076045</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.68137107</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="O2" t="n">
-        <v>742806.7290629335</v>
+        <v>742806.7290629331</v>
       </c>
       <c r="P2" t="n">
-        <v>742806.7290629336</v>
+        <v>742806.729062933</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34727.31474703422</v>
+        <v>34727.31474703429</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1423.176443436415</v>
+        <v>1423.176443436489</v>
       </c>
       <c r="M3" t="n">
         <v>211922.3670246715</v>
@@ -26427,37 +26427,37 @@
         <v>64231.5248424075</v>
       </c>
       <c r="F4" t="n">
-        <v>64231.5248424075</v>
+        <v>64231.52484240741</v>
       </c>
       <c r="G4" t="n">
         <v>78268.55407821015</v>
       </c>
       <c r="H4" t="n">
-        <v>78268.55407821017</v>
+        <v>78268.5540782101</v>
       </c>
       <c r="I4" t="n">
-        <v>78268.55407821015</v>
+        <v>78268.5540782101</v>
       </c>
       <c r="J4" t="n">
-        <v>50683.8207575198</v>
+        <v>50683.82075751977</v>
       </c>
       <c r="K4" t="n">
-        <v>50683.8207575198</v>
+        <v>50683.82075751979</v>
       </c>
       <c r="L4" t="n">
-        <v>51719.77454469432</v>
+        <v>51719.77454469441</v>
       </c>
       <c r="M4" t="n">
-        <v>78268.55407821012</v>
+        <v>78268.5540782101</v>
       </c>
       <c r="N4" t="n">
-        <v>78268.55407821007</v>
+        <v>78268.55407821009</v>
       </c>
       <c r="O4" t="n">
-        <v>64231.52484240745</v>
+        <v>64231.52484240739</v>
       </c>
       <c r="P4" t="n">
-        <v>64231.52484240754</v>
+        <v>64231.52484240742</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>81474.3174696546</v>
+        <v>81474.31746965459</v>
       </c>
       <c r="F5" t="n">
-        <v>81474.3174696546</v>
+        <v>81474.31746965459</v>
       </c>
       <c r="G5" t="n">
-        <v>89177.84278705496</v>
+        <v>89177.84278705498</v>
       </c>
       <c r="H5" t="n">
-        <v>89177.84278705496</v>
+        <v>89177.84278705495</v>
       </c>
       <c r="I5" t="n">
         <v>89177.84278705496</v>
@@ -26494,22 +26494,22 @@
         <v>96271.99570314688</v>
       </c>
       <c r="K5" t="n">
-        <v>96271.99570314689</v>
+        <v>96271.99570314688</v>
       </c>
       <c r="L5" t="n">
-        <v>96003.48839757993</v>
+        <v>96003.48839757992</v>
       </c>
       <c r="M5" t="n">
-        <v>89177.84278705495</v>
+        <v>89177.84278705496</v>
       </c>
       <c r="N5" t="n">
         <v>89177.84278705496</v>
       </c>
       <c r="O5" t="n">
-        <v>81474.31746965459</v>
+        <v>81474.31746965458</v>
       </c>
       <c r="P5" t="n">
-        <v>81474.3174696546</v>
+        <v>81474.31746965458</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324537.1528916551</v>
+        <v>324532.7393137873</v>
       </c>
       <c r="C6" t="n">
-        <v>324537.1528916552</v>
+        <v>324532.7393137871</v>
       </c>
       <c r="D6" t="n">
-        <v>323224.7645010764</v>
+        <v>323223.0875894136</v>
       </c>
       <c r="E6" t="n">
-        <v>-573626.9202581553</v>
+        <v>-573724.7701326505</v>
       </c>
       <c r="F6" t="n">
-        <v>597100.8867508713</v>
+        <v>597003.036876376</v>
       </c>
       <c r="G6" t="n">
-        <v>577815.9697587702</v>
+        <v>577815.9697587703</v>
       </c>
       <c r="H6" t="n">
         <v>612543.2845058047</v>
       </c>
       <c r="I6" t="n">
-        <v>612543.2845058051</v>
+        <v>612543.2845058042</v>
       </c>
       <c r="J6" t="n">
-        <v>559490.4063517299</v>
+        <v>559422.4431339768</v>
       </c>
       <c r="K6" t="n">
-        <v>607207.8421642272</v>
+        <v>607139.8789464739</v>
       </c>
       <c r="L6" t="n">
-        <v>605984.2146903344</v>
+        <v>605918.7961974525</v>
       </c>
       <c r="M6" t="n">
-        <v>400620.9174811334</v>
+        <v>400620.917481133</v>
       </c>
       <c r="N6" t="n">
-        <v>612543.2845058044</v>
+        <v>612543.2845058047</v>
       </c>
       <c r="O6" t="n">
-        <v>597100.8867508714</v>
+        <v>597003.036876376</v>
       </c>
       <c r="P6" t="n">
-        <v>597100.8867508714</v>
+        <v>597003.0368763759</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G2" t="n">
         <v>47.51184087299526</v>
@@ -26704,7 +26704,7 @@
         <v>47.51184087299526</v>
       </c>
       <c r="I2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="M2" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="N2" t="n">
         <v>47.51184087299524</v>
@@ -26725,7 +26725,7 @@
         <v>47.51184087299524</v>
       </c>
       <c r="P2" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26796,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>885.959921549406</v>
+        <v>885.9599215494057</v>
       </c>
       <c r="F4" t="n">
-        <v>885.959921549406</v>
+        <v>885.9599215494057</v>
       </c>
       <c r="G4" t="n">
         <v>1012.662640585596</v>
@@ -26814,7 +26814,7 @@
         <v>1195.038066020526</v>
       </c>
       <c r="K4" t="n">
-        <v>1195.038066020527</v>
+        <v>1195.038066020526</v>
       </c>
       <c r="L4" t="n">
         <v>1188.162020278815</v>
@@ -26826,10 +26826,10 @@
         <v>1012.662640585596</v>
       </c>
       <c r="O4" t="n">
-        <v>885.9599215494059</v>
+        <v>885.9599215494056</v>
       </c>
       <c r="P4" t="n">
-        <v>885.9599215494059</v>
+        <v>885.9599215494056</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.778970554295519</v>
+        <v>1.778970554295612</v>
       </c>
       <c r="M2" t="n">
-        <v>45.73287031869977</v>
+        <v>45.7328703186997</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>879.0838758076945</v>
+        <v>879.0838758076943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>126.7027190361903</v>
+        <v>126.7027190361905</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>879.0838758076945</v>
+        <v>879.0838758076943</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>126.7027190361903</v>
+        <v>126.7027190361905</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>358.3968460292961</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.4183810264677</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27901,7 +27901,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,10 +27938,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>151.5886593661015</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.8849609916754</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,10 +28056,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28068,13 +28068,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I11" t="n">
         <v>42.59677880594418</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="C13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="D13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="E13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="F13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="G13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="I13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="J13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="K13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="L13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="M13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="N13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="O13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="P13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="R13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="S13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="T13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="U13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="V13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="W13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="X13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299527</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I14" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K16" t="n">
-        <v>47.5118408729949</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>47.51184087299526</v>
       </c>
       <c r="I17" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>47.51184087299526</v>
       </c>
       <c r="M19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299504</v>
       </c>
       <c r="N19" t="n">
         <v>47.51184087299526</v>
@@ -28819,7 +28819,7 @@
         <v>47.51184087299526</v>
       </c>
       <c r="I20" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>47.51184087299526</v>
       </c>
       <c r="P22" t="n">
-        <v>47.51184087299552</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299487</v>
       </c>
       <c r="R22" t="n">
         <v>47.51184087299526</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I23" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="J25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="K25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="L25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="M25" t="n">
-        <v>47.51184087299578</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="N25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="O25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="P25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="R25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="S25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-5.563524984624748e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="C32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="D32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="E32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="F32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="G32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="H32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="I32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="T32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="U32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="V32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="W32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="X32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="C34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="D34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="E34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="F34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="G34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="H34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="I34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="J34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="K34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="L34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="M34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="N34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="O34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="P34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="R34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="S34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="T34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="U34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="V34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="W34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.778970554295463</v>
+        <v>1.778970554295583</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="C35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="D35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="E35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="F35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="G35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="H35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="I35" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="T35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="U35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="V35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="W35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="X35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="C37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="D37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="E37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="F37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="G37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="H37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="I37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="J37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299409</v>
       </c>
       <c r="K37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="L37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="M37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="N37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="O37" t="n">
-        <v>47.51184087299561</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="P37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="R37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="S37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="T37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="U37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="V37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="W37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="X37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299528</v>
       </c>
     </row>
     <row r="38">
@@ -30411,7 +30411,7 @@
         <v>47.51184087299524</v>
       </c>
       <c r="M40" t="n">
-        <v>47.51184087299524</v>
+        <v>47.51184087299515</v>
       </c>
       <c r="N40" t="n">
         <v>47.51184087299524</v>
@@ -30478,7 +30478,7 @@
         <v>47.51184087299524</v>
       </c>
       <c r="I41" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="C44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="D44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="E44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="F44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="G44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="H44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="I44" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="T44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="U44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="V44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="W44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="X44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="C46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="D46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="E46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="F46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="G46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="H46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="I46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="J46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="K46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="L46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="M46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="N46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="O46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="P46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="R46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="S46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="T46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="U46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="V46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="W46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="X46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.51184087299531</v>
+        <v>47.51184087299526</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H14" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I14" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J14" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K14" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L14" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M14" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N14" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O14" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P14" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q14" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R14" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S14" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T14" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H15" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I15" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J15" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K15" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L15" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N15" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O15" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P15" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q15" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R15" t="n">
         <v>144.6578121553072</v>
@@ -32105,7 +32105,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T15" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U15" t="n">
         <v>0.1532825079351235</v>
@@ -32151,7 +32151,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I16" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J16" t="n">
         <v>138.0986609906166</v>
@@ -32169,22 +32169,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O16" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P16" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R16" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S16" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T16" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U16" t="n">
         <v>0.1065439071549056</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H17" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I17" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J17" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K17" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L17" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M17" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N17" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O17" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P17" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q17" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R17" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S17" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T17" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H18" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I18" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J18" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K18" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L18" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N18" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O18" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P18" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q18" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R18" t="n">
         <v>144.6578121553072</v>
@@ -32342,7 +32342,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T18" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U18" t="n">
         <v>0.1532825079351235</v>
@@ -32388,7 +32388,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I19" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J19" t="n">
         <v>138.0986609906166</v>
@@ -32406,22 +32406,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O19" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P19" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R19" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S19" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T19" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U19" t="n">
         <v>0.1065439071549056</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H20" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I20" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J20" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K20" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L20" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M20" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N20" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O20" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P20" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q20" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R20" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S20" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T20" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H21" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I21" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J21" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K21" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L21" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N21" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O21" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P21" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q21" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R21" t="n">
         <v>144.6578121553072</v>
@@ -32579,7 +32579,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T21" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U21" t="n">
         <v>0.1532825079351235</v>
@@ -32625,7 +32625,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I22" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J22" t="n">
         <v>138.0986609906166</v>
@@ -32643,22 +32643,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O22" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P22" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R22" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S22" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T22" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U22" t="n">
         <v>0.1065439071549056</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H23" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I23" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J23" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K23" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L23" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M23" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N23" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O23" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P23" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q23" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R23" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S23" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T23" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,37 +32777,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H24" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I24" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J24" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K24" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L24" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N24" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O24" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P24" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q24" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R24" t="n">
         <v>144.6578121553072</v>
@@ -32816,7 +32816,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T24" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U24" t="n">
         <v>0.1532825079351235</v>
@@ -32862,7 +32862,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I25" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J25" t="n">
         <v>138.0986609906166</v>
@@ -32880,22 +32880,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O25" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P25" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R25" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S25" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T25" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U25" t="n">
         <v>0.1065439071549056</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H26" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I26" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J26" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K26" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L26" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M26" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N26" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O26" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P26" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q26" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R26" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S26" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T26" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,37 +33014,37 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H27" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I27" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J27" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K27" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L27" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N27" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O27" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P27" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q27" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R27" t="n">
         <v>144.6578121553072</v>
@@ -33053,7 +33053,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T27" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U27" t="n">
         <v>0.1532825079351235</v>
@@ -33099,7 +33099,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I28" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J28" t="n">
         <v>138.0986609906166</v>
@@ -33117,22 +33117,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O28" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P28" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R28" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S28" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T28" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U28" t="n">
         <v>0.1065439071549056</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H29" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I29" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J29" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K29" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L29" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M29" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N29" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O29" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P29" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q29" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R29" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S29" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T29" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,37 +33251,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H30" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I30" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J30" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K30" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L30" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N30" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O30" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P30" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q30" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R30" t="n">
         <v>144.6578121553072</v>
@@ -33290,7 +33290,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T30" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U30" t="n">
         <v>0.1532825079351235</v>
@@ -33336,7 +33336,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I31" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J31" t="n">
         <v>138.0986609906166</v>
@@ -33354,22 +33354,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O31" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P31" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q31" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R31" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S31" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T31" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U31" t="n">
         <v>0.1065439071549056</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H32" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I32" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J32" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K32" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L32" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M32" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N32" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O32" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P32" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q32" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R32" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S32" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T32" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,37 +33488,37 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H33" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I33" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J33" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K33" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L33" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N33" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O33" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P33" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q33" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R33" t="n">
         <v>144.6578121553072</v>
@@ -33527,7 +33527,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T33" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U33" t="n">
         <v>0.1532825079351235</v>
@@ -33573,7 +33573,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I34" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J34" t="n">
         <v>138.0986609906166</v>
@@ -33591,22 +33591,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O34" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P34" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R34" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S34" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T34" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U34" t="n">
         <v>0.1065439071549056</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H35" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I35" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J35" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K35" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L35" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M35" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N35" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O35" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P35" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q35" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R35" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S35" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T35" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,37 +33725,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H36" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I36" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J36" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K36" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L36" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N36" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O36" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P36" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q36" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R36" t="n">
         <v>144.6578121553072</v>
@@ -33764,7 +33764,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T36" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U36" t="n">
         <v>0.1532825079351235</v>
@@ -33810,7 +33810,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I37" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J37" t="n">
         <v>138.0986609906166</v>
@@ -33828,22 +33828,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O37" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P37" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q37" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R37" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S37" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T37" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U37" t="n">
         <v>0.1065439071549056</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H41" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I41" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J41" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K41" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L41" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M41" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N41" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O41" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P41" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q41" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R41" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S41" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T41" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34199,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H42" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I42" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J42" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K42" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L42" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N42" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O42" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P42" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q42" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R42" t="n">
         <v>144.6578121553072</v>
@@ -34238,7 +34238,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T42" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U42" t="n">
         <v>0.1532825079351235</v>
@@ -34284,7 +34284,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I43" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J43" t="n">
         <v>138.0986609906166</v>
@@ -34302,22 +34302,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O43" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P43" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q43" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R43" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S43" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T43" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U43" t="n">
         <v>0.1065439071549056</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H44" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I44" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J44" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K44" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L44" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M44" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N44" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O44" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P44" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q44" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R44" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S44" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T44" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H45" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I45" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J45" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K45" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L45" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N45" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O45" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P45" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q45" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R45" t="n">
         <v>144.6578121553072</v>
@@ -34475,7 +34475,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T45" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U45" t="n">
         <v>0.1532825079351235</v>
@@ -34521,7 +34521,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I46" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J46" t="n">
         <v>138.0986609906166</v>
@@ -34539,22 +34539,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O46" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P46" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q46" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R46" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S46" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T46" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U46" t="n">
         <v>0.1065439071549056</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>333.8263005899301</v>
       </c>
       <c r="L11" t="n">
-        <v>530.2779072445829</v>
+        <v>451.4155517497531</v>
       </c>
       <c r="M11" t="n">
         <v>534.2761105382491</v>
@@ -35428,7 +35428,7 @@
         <v>394.957938083471</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.9376230771298</v>
+        <v>326.7999785719591</v>
       </c>
       <c r="R11" t="n">
         <v>57.95148810009181</v>
@@ -35504,10 +35504,10 @@
         <v>411.7448360859983</v>
       </c>
       <c r="P12" t="n">
-        <v>323.2750382045059</v>
+        <v>310.9331812842967</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.4271666435673</v>
+        <v>169.7690235637765</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>348.1877468611133</v>
       </c>
       <c r="P13" t="n">
-        <v>281.0337569360323</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q13" t="n">
         <v>124.9124524219399</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>357.6384073510546</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K14" t="n">
-        <v>333.8263005899301</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L14" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M14" t="n">
-        <v>534.2761105382491</v>
+        <v>534.2761105382493</v>
       </c>
       <c r="N14" t="n">
-        <v>547.5816690791062</v>
+        <v>795.5406397460076</v>
       </c>
       <c r="O14" t="n">
-        <v>503.5958816673657</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P14" t="n">
-        <v>394.957938083471</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q14" t="n">
-        <v>326.79997857196</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R14" t="n">
-        <v>57.95148810009181</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K15" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L15" t="n">
-        <v>379.6708474955539</v>
+        <v>379.6708474955537</v>
       </c>
       <c r="M15" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N15" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O15" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P15" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q15" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,19 +35805,19 @@
         <v>92.25132174693908</v>
       </c>
       <c r="K16" t="n">
-        <v>252.1808712870606</v>
+        <v>252.180871287061</v>
       </c>
       <c r="L16" t="n">
         <v>365.5050424018654</v>
       </c>
       <c r="M16" t="n">
-        <v>393.2851496801749</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N16" t="n">
         <v>390.5529447753113</v>
       </c>
       <c r="O16" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P16" t="n">
         <v>281.0337569360323</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>338.362218507035</v>
+        <v>357.6384073510547</v>
       </c>
       <c r="K17" t="n">
-        <v>333.8263005899301</v>
+        <v>657.971713161095</v>
       </c>
       <c r="L17" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M17" t="n">
-        <v>534.2761105382491</v>
+        <v>790.6846278274347</v>
       </c>
       <c r="N17" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O17" t="n">
-        <v>503.5958816673657</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P17" t="n">
-        <v>716.7566462549537</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.2526137370345</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R17" t="n">
-        <v>123.6679079730743</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.28627356203293</v>
+        <v>105.628130482242</v>
       </c>
       <c r="K18" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L18" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M18" t="n">
-        <v>460.549855225663</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N18" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O18" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P18" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.25132174693908</v>
+        <v>92.25132174693911</v>
       </c>
       <c r="K19" t="n">
         <v>252.180871287061</v>
       </c>
       <c r="L19" t="n">
-        <v>365.5050424018654</v>
+        <v>365.5050424018655</v>
       </c>
       <c r="M19" t="n">
-        <v>393.2851496801749</v>
+        <v>393.2851496801748</v>
       </c>
       <c r="N19" t="n">
-        <v>390.5529447753113</v>
+        <v>390.5529447753114</v>
       </c>
       <c r="O19" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P19" t="n">
-        <v>281.0337569360323</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q19" t="n">
         <v>124.9124524219399</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.5417921789808</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K20" t="n">
-        <v>333.8263005899301</v>
+        <v>380.8779561881246</v>
       </c>
       <c r="L20" t="n">
-        <v>869.0767663002035</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9504503603187</v>
+        <v>534.2761105382493</v>
       </c>
       <c r="N20" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O20" t="n">
-        <v>503.5958816673657</v>
+        <v>884.3960629301112</v>
       </c>
       <c r="P20" t="n">
-        <v>394.957938083471</v>
+        <v>716.7566462549537</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.2526137370345</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R20" t="n">
-        <v>57.95148810009181</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K21" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L21" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M21" t="n">
-        <v>448.2079983054536</v>
+        <v>460.5498552256627</v>
       </c>
       <c r="N21" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O21" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P21" t="n">
-        <v>323.2750382045064</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.25132174693908</v>
+        <v>92.25132174693911</v>
       </c>
       <c r="K22" t="n">
         <v>252.180871287061</v>
       </c>
       <c r="L22" t="n">
-        <v>365.5050424018654</v>
+        <v>365.5050424018655</v>
       </c>
       <c r="M22" t="n">
-        <v>393.2851496801749</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N22" t="n">
-        <v>390.5529447753113</v>
+        <v>390.5529447753114</v>
       </c>
       <c r="O22" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P22" t="n">
-        <v>281.0337569360326</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.9124524219399</v>
+        <v>124.9124524219395</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.5417921789808</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K23" t="n">
-        <v>657.9717131610948</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L23" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M23" t="n">
-        <v>637.9825348280256</v>
+        <v>534.2761105382493</v>
       </c>
       <c r="N23" t="n">
-        <v>547.5816690791062</v>
+        <v>916.4320328487839</v>
       </c>
       <c r="O23" t="n">
-        <v>503.5958816673657</v>
+        <v>884.3960629301112</v>
       </c>
       <c r="P23" t="n">
-        <v>716.7566462549537</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q23" t="n">
-        <v>247.9376230771298</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R23" t="n">
-        <v>57.95148810009181</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K24" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L24" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M24" t="n">
-        <v>460.549855225663</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N24" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O24" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P24" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.4271666435673</v>
+        <v>169.769023563776</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.25132174693908</v>
+        <v>92.2513217469391</v>
       </c>
       <c r="K25" t="n">
         <v>252.180871287061</v>
@@ -36522,16 +36522,16 @@
         <v>365.5050424018654</v>
       </c>
       <c r="M25" t="n">
-        <v>393.2851496801754</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N25" t="n">
         <v>390.5529447753113</v>
       </c>
       <c r="O25" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P25" t="n">
-        <v>281.0337569360323</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q25" t="n">
         <v>124.9124524219399</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>357.6384073510546</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K26" t="n">
-        <v>657.9717131610948</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L26" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M26" t="n">
-        <v>534.2761105382491</v>
+        <v>983.7896440310818</v>
       </c>
       <c r="N26" t="n">
-        <v>984.9285934910903</v>
+        <v>654.9377982063086</v>
       </c>
       <c r="O26" t="n">
-        <v>503.5958816673657</v>
+        <v>884.3960629301112</v>
       </c>
       <c r="P26" t="n">
         <v>716.7566462549537</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.2526137370345</v>
+        <v>460.2526137370346</v>
       </c>
       <c r="R26" t="n">
-        <v>65.03237982764992</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K27" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L27" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M27" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N27" t="n">
-        <v>486.9667740398684</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O27" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P27" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.4271666435673</v>
+        <v>169.769023563776</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>44.73948087394382</v>
+        <v>44.73948087394385</v>
       </c>
       <c r="K28" t="n">
-        <v>204.6690304140657</v>
+        <v>204.6690304140658</v>
       </c>
       <c r="L28" t="n">
         <v>317.9932015288701</v>
@@ -36771,7 +36771,7 @@
         <v>233.5219160630371</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.40061154894464</v>
+        <v>77.40061154894467</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>299.0028792056316</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K29" t="n">
-        <v>657.9717131610948</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L29" t="n">
-        <v>451.4155517497531</v>
+        <v>505.2218700848217</v>
       </c>
       <c r="M29" t="n">
-        <v>534.2761105382491</v>
+        <v>534.2761105382493</v>
       </c>
       <c r="N29" t="n">
-        <v>984.9285934910903</v>
+        <v>984.9285934910904</v>
       </c>
       <c r="O29" t="n">
-        <v>503.5958816673657</v>
+        <v>884.3960629301112</v>
       </c>
       <c r="P29" t="n">
         <v>716.7566462549537</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.2526137370345</v>
+        <v>460.2526137370346</v>
       </c>
       <c r="R29" t="n">
         <v>123.6679079730743</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K30" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L30" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M30" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N30" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O30" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P30" t="n">
-        <v>323.2750382045064</v>
+        <v>323.2750382045054</v>
       </c>
       <c r="Q30" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>44.73948087394376</v>
+        <v>44.73948087394385</v>
       </c>
       <c r="K31" t="n">
-        <v>204.6690304140656</v>
+        <v>204.6690304140658</v>
       </c>
       <c r="L31" t="n">
-        <v>317.99320152887</v>
+        <v>317.9932015288701</v>
       </c>
       <c r="M31" t="n">
-        <v>345.7733088071796</v>
+        <v>345.7733088071797</v>
       </c>
       <c r="N31" t="n">
-        <v>343.041103902316</v>
+        <v>343.0411039023161</v>
       </c>
       <c r="O31" t="n">
         <v>300.6759059881181</v>
       </c>
       <c r="P31" t="n">
-        <v>233.521916063037</v>
+        <v>233.5219160630371</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.40061154894458</v>
+        <v>77.40061154894467</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>268.6715583693073</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K32" t="n">
-        <v>333.8263005899301</v>
+        <v>657.971713161095</v>
       </c>
       <c r="L32" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M32" t="n">
-        <v>983.7896440310816</v>
+        <v>617.5108346280215</v>
       </c>
       <c r="N32" t="n">
-        <v>547.5816690791062</v>
+        <v>984.9285934910904</v>
       </c>
       <c r="O32" t="n">
-        <v>884.396062930111</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P32" t="n">
         <v>716.7566462549537</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.2526137370345</v>
+        <v>460.2526137370346</v>
       </c>
       <c r="R32" t="n">
-        <v>57.95148810009181</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K33" t="n">
-        <v>250.7272242556795</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L33" t="n">
-        <v>367.3289905753448</v>
+        <v>379.670847495554</v>
       </c>
       <c r="M33" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N33" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O33" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P33" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>46.51845142823929</v>
+        <v>46.51845142823943</v>
       </c>
       <c r="K34" t="n">
-        <v>206.4480009683612</v>
+        <v>206.4480009683614</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7721720831656</v>
+        <v>319.7721720831657</v>
       </c>
       <c r="M34" t="n">
-        <v>347.5522793614751</v>
+        <v>347.5522793614753</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8200744566115</v>
+        <v>344.8200744566117</v>
       </c>
       <c r="O34" t="n">
-        <v>302.4548765424136</v>
+        <v>302.4548765424137</v>
       </c>
       <c r="P34" t="n">
-        <v>235.3008866173325</v>
+        <v>235.3008866173327</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.17958210324011</v>
+        <v>79.17958210324025</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>357.6384073510546</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K35" t="n">
-        <v>333.8263005899301</v>
+        <v>657.971713161095</v>
       </c>
       <c r="L35" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M35" t="n">
-        <v>534.2761105382491</v>
+        <v>959.7812429995075</v>
       </c>
       <c r="N35" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O35" t="n">
-        <v>762.351103356233</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P35" t="n">
-        <v>716.7566462549537</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.9376230771298</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R35" t="n">
-        <v>57.95148810009181</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K36" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L36" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M36" t="n">
-        <v>460.549855225663</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N36" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O36" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P36" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.4271666435673</v>
+        <v>169.769023563776</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.25132174693906</v>
+        <v>92.25132174693793</v>
       </c>
       <c r="K37" t="n">
-        <v>252.1808712870609</v>
+        <v>252.1808712870611</v>
       </c>
       <c r="L37" t="n">
-        <v>365.5050424018654</v>
+        <v>365.5050424018655</v>
       </c>
       <c r="M37" t="n">
-        <v>393.2851496801749</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N37" t="n">
-        <v>390.5529447753113</v>
+        <v>390.5529447753114</v>
       </c>
       <c r="O37" t="n">
-        <v>348.1877468611137</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P37" t="n">
-        <v>281.0337569360323</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q37" t="n">
         <v>124.9124524219399</v>
@@ -37546,16 +37546,16 @@
         <v>657.971713161095</v>
       </c>
       <c r="L38" t="n">
-        <v>496.1205029482659</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M38" t="n">
-        <v>534.2761105382493</v>
+        <v>959.7812429995075</v>
       </c>
       <c r="N38" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O38" t="n">
-        <v>884.3960629301112</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P38" t="n">
         <v>394.9579380834711</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.28627356203296</v>
+        <v>105.628130482242</v>
       </c>
       <c r="K39" t="n">
         <v>238.3853673354704</v>
       </c>
       <c r="L39" t="n">
-        <v>379.670847495554</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M39" t="n">
         <v>448.2079983054537</v>
@@ -37707,7 +37707,7 @@
         <v>365.5050424018654</v>
       </c>
       <c r="M40" t="n">
-        <v>393.285149680175</v>
+        <v>393.2851496801749</v>
       </c>
       <c r="N40" t="n">
         <v>390.5529447753113</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.5417921789808</v>
+        <v>357.6384073510547</v>
       </c>
       <c r="K41" t="n">
-        <v>333.8263005899301</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L41" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M41" t="n">
-        <v>534.2761105382491</v>
+        <v>534.2761105382493</v>
       </c>
       <c r="N41" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O41" t="n">
-        <v>503.5958816673657</v>
+        <v>582.4582371621931</v>
       </c>
       <c r="P41" t="n">
-        <v>642.9169087503741</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.9376230771298</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R41" t="n">
-        <v>57.95148810009181</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K42" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L42" t="n">
-        <v>367.3289905753448</v>
+        <v>379.6708474955537</v>
       </c>
       <c r="M42" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N42" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O42" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P42" t="n">
-        <v>323.2750382045059</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q42" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.25132174693906</v>
+        <v>92.25132174693908</v>
       </c>
       <c r="K43" t="n">
-        <v>252.1808712870609</v>
+        <v>252.180871287061</v>
       </c>
       <c r="L43" t="n">
         <v>365.5050424018654</v>
       </c>
       <c r="M43" t="n">
-        <v>393.2851496801749</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N43" t="n">
         <v>390.5529447753113</v>
       </c>
       <c r="O43" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P43" t="n">
         <v>281.0337569360323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.5417921789808</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K44" t="n">
-        <v>333.8263005899301</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L44" t="n">
-        <v>699.3745224166562</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M44" t="n">
-        <v>534.2761105382491</v>
+        <v>716.5186613321681</v>
       </c>
       <c r="N44" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O44" t="n">
-        <v>503.5958816673657</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P44" t="n">
-        <v>394.957938083471</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.9376230771298</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R44" t="n">
-        <v>57.95148810009181</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K45" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L45" t="n">
-        <v>367.3289905753448</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M45" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N45" t="n">
-        <v>474.624917119659</v>
+        <v>486.9667740398677</v>
       </c>
       <c r="O45" t="n">
-        <v>424.0866930062072</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P45" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q45" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.25132174693913</v>
+        <v>92.25132174693911</v>
       </c>
       <c r="K46" t="n">
         <v>252.180871287061</v>
       </c>
       <c r="L46" t="n">
-        <v>365.5050424018654</v>
+        <v>365.5050424018655</v>
       </c>
       <c r="M46" t="n">
         <v>393.285149680175</v>
       </c>
       <c r="N46" t="n">
-        <v>390.5529447753113</v>
+        <v>390.5529447753114</v>
       </c>
       <c r="O46" t="n">
         <v>348.1877468611134</v>
